--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -113,7 +113,10 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -185,7 +188,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:45 AM</t>
+    <t>Sunday, 8 June, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1024,7 +1027,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1041,7 +1044,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1050,14 +1053,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1067,11 +1070,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1083,14 +1086,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1100,11 +1103,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1116,7 +1119,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1133,14 +1136,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1149,28 +1152,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>28</v>
@@ -1182,7 +1185,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1199,11 +1202,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1215,42 +1218,42 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
       <c r="P20" s="13">
-        <v>776.21000000000004</v>
+        <v>792.04999999999995</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c t="s" r="A21" s="14">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1258,13 +1261,13 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c t="s" r="G21" s="15">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c t="s" r="K21" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -98,6 +98,42 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -131,18 +167,36 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
     <t>38.6100</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -158,9 +212,6 @@
     <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>277.50</t>
   </si>
   <si>
@@ -188,7 +239,16 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:47 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 8 June, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -994,7 +1054,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1011,7 +1071,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1027,24 +1087,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1053,14 +1113,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1070,11 +1130,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1086,14 +1146,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1110,7 +1170,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1126,7 +1186,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1159,13 +1219,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1176,7 +1236,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1192,7 +1252,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1202,11 +1262,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1218,66 +1278,264 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>792.04999999999995</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>59</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>34</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>60</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>49</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>34</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>16</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>49</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>34</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>49</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>34</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>967.75</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>81</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1351,10 +1609,40 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -62,18 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
     <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -227,16 +233,58 @@
     <t>60.3900</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>رباط ضغط 12سم</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>رباط ضغط 15سم</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -248,7 +296,19 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 11:27 AM</t>
+    <t>فرشه اسنان SENSODYNE</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 8 June, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -955,7 +1015,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -965,11 +1025,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -981,14 +1041,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -998,11 +1058,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1014,14 +1074,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1031,14 +1091,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1047,14 +1107,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1064,14 +1124,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1080,31 +1140,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,28 +1173,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1146,14 +1206,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,11 +1223,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1179,14 +1239,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,14 +1256,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1212,14 +1272,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,14 +1289,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,14 +1305,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1262,14 +1322,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,14 +1338,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,11 +1355,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1311,28 +1371,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1344,7 +1404,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1357,18 +1417,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,31 +1437,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,31 +1470,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,31 +1503,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1476,66 +1536,264 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>78</v>
       </c>
-      <c t="s" r="Q25" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>967.75</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>79</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>51</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>36</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>82</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>51</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>36</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>86</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>51</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>36</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>90</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>51</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>36</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>93</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>96</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>36</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>97</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1204.3499999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>99</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>100</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>101</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1639,10 +1897,40 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -92,6 +92,15 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
     <t>183.1500</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
   </si>
   <si>
@@ -254,16 +272,25 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>65.7500</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>رباط ضغط 12سم</t>
@@ -308,7 +335,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 12:16 PM</t>
+    <t>Sunday, 8 June, 2025 12:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1114,7 +1141,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1131,7 +1158,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1140,14 +1167,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1157,14 +1184,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1180,24 +1207,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1206,28 +1233,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1239,14 +1266,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1279,7 +1306,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1296,7 +1323,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1305,14 +1332,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1322,14 +1349,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1338,14 +1365,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1355,14 +1382,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1371,14 +1398,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1411,13 +1438,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1450,7 +1477,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1461,7 +1488,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1470,31 +1497,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1510,13 +1537,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1527,7 +1554,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1543,24 +1570,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1576,7 +1603,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1586,11 +1613,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1602,31 +1629,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1635,31 +1662,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,31 +1695,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,31 +1728,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1734,66 +1761,165 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>98</v>
       </c>
-      <c t="s" r="Q31" s="12">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>54</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>39</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>99</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>54</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>39</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>105</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>39</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1204.3499999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>99</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>100</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>101</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1464.0999999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>108</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>109</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>110</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1927,10 +2053,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -281,6 +290,30 @@
     <t>65.7500</t>
   </si>
   <si>
+    <t>TROPHIC SILICONE GEL</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>59:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -302,9 +335,6 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>رباط ضغط 15سم</t>
   </si>
   <si>
@@ -335,7 +365,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 12:40 PM</t>
+    <t>Sunday, 8 June, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,7 +1303,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1283,14 +1313,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1299,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1339,7 +1369,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1356,7 +1386,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1365,14 +1395,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,14 +1412,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1398,14 +1428,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1415,14 +1445,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1431,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1471,13 +1501,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1510,7 +1540,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1521,7 +1551,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1530,31 +1560,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1570,7 +1600,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1580,14 +1610,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1603,24 +1633,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1653,7 +1683,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1669,7 +1699,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1679,14 +1709,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1695,14 +1725,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1719,7 +1749,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1735,13 +1765,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1752,7 +1782,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,14 +1791,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1778,14 +1808,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1794,14 +1824,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1811,14 +1841,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1834,7 +1864,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1851,7 +1881,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1860,14 +1890,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1884,42 +1914,141 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>108</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>57</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>39</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>109</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>111</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>57</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>39</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>112</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>115</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>39</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>116</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1464.0999999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>108</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>109</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>110</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1662</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>118</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>119</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2068,10 +2197,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 12:51 PM</t>
+    <t>Sunday, 8 June, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 12:58 PM</t>
+    <t>Sunday, 8 June, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>183.1500</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -365,7 +374,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 1:02 PM</t>
+    <t>Sunday, 8 June, 2025 1:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1633,24 +1642,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1666,24 +1675,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1716,7 +1725,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1732,7 +1741,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1751,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,14 +1767,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1782,7 +1791,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1804,7 +1813,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1831,7 +1840,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1850,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,14 +1866,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,7 +1899,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1907,14 +1916,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1947,7 +1956,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1980,7 +1989,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1996,7 +2005,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2006,49 +2015,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>117</v>
       </c>
-      <c t="s" r="Q37" s="12">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>118</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>39</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>119</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1662</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>118</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>119</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>120</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1699.6199999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>121</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>122</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>123</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2212,10 +2254,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -233,6 +242,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
   </si>
   <si>
@@ -251,6 +269,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -299,6 +326,9 @@
     <t>65.7500</t>
   </si>
   <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
     <t>TROPHIC SILICONE GEL</t>
   </si>
   <si>
@@ -374,7 +404,10 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 1:04 PM</t>
+    <t>لونا انبوبه كبير</t>
+  </si>
+  <si>
+    <t>Sunday, 8 June, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1279,24 +1312,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,20 +1338,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1329,7 +1362,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1345,7 +1378,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1388,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,14 +1404,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1411,7 +1444,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1428,7 +1461,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1437,14 +1470,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1487,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1470,14 +1503,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1487,14 +1520,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1503,14 +1536,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1543,13 +1576,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1582,7 +1615,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1593,7 +1626,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1602,31 +1635,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1642,7 +1675,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1659,7 +1692,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1675,24 +1708,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1708,7 +1741,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1741,7 +1774,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1758,7 +1791,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1780,18 +1813,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,14 +1833,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1850,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,31 +1866,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,31 +1899,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1899,31 +1932,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,31 +1965,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1965,31 +1998,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1998,31 +2031,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,66 +2064,231 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>60</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>42</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>119</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
-      <c t="s" r="Q38" s="12">
+      <c t="s" r="Q39" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>60</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>42</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>122</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>124</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>60</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>42</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>125</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>127</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>128</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>42</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>129</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1699.6199999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>121</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>122</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>123</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>113</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>42</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>53</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1995.27</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>132</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>133</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>134</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2259,10 +2457,35 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -287,6 +299,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
   </si>
   <si>
@@ -359,10 +380,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>رباط ضغط 12سم</t>
@@ -407,7 +428,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 1:05 PM</t>
+    <t>Sunday, 8 June, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1696,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,14 +1706,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,31 +1722,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1734,7 +1755,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1747,18 +1768,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1784,11 +1805,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1800,31 +1821,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,31 +1854,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1899,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1939,7 +1960,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1956,7 +1977,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1972,7 +1993,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,11 +2003,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1998,7 +2019,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2011,15 +2032,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2031,31 +2052,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,7 +2085,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,14 +2135,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>113</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,7 +2175,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2163,7 +2184,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2220,7 +2241,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2236,7 +2257,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2246,49 +2267,115 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>135</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>42</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>136</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>138</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>120</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>42</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>53</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>54</v>
       </c>
-      <c t="s" r="Q43" s="12">
+      <c t="s" r="Q45" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1995.27</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>132</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>133</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>134</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2057.1100000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>139</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>140</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>141</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2482,10 +2569,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -47,54 +47,57 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
     <t>65.3400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 1:10 PM</t>
+    <t>Sunday, 8 June, 2025 1:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1086,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1095,14 +1095,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1112,14 +1112,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1168,7 +1168,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1185,7 +1185,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1218,7 +1218,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1234,7 +1234,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1244,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1260,14 +1260,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1277,14 +1277,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1317,7 +1317,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1333,7 +1333,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1350,7 +1350,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1383,7 +1383,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1399,7 +1399,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1416,7 +1416,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1449,7 +1449,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1465,7 +1465,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,7 +1482,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1498,7 +1498,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1548,7 +1548,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1581,7 +1581,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1614,7 +1614,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1630,7 +1630,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1647,7 +1647,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1663,7 +1663,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1713,7 +1713,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1729,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1746,7 +1746,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1779,7 +1779,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1812,7 +1812,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1828,7 +1828,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1845,7 +1845,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1878,7 +1878,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1911,7 +1911,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1927,7 +1927,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1944,7 +1944,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1960,7 +1960,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1977,7 +1977,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2010,7 +2010,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2043,7 +2043,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2059,7 +2059,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2076,7 +2076,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2109,7 +2109,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2307,7 +2307,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2340,12 +2340,12 @@
         <v>54</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
       <c r="P46" s="13">
-        <v>2057.1100000000001</v>
+        <v>2085.8200000000002</v>
       </c>
       <c r="Q46" s="13"/>
     </row>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -254,6 +263,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -410,7 +431,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
@@ -428,7 +449,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 1:39 PM</t>
+    <t>Sunday, 8 June, 2025 1:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1453,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,14 +1463,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1458,14 +1479,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1498,7 +1519,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1515,7 +1536,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1562,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1595,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1630,13 +1651,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1669,7 +1690,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1680,7 +1701,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1746,7 +1767,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,24 +1783,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,31 +1842,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,31 +1875,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,31 +1941,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2026,7 +2047,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2043,7 +2064,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2059,7 +2080,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,11 +2090,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2085,28 +2106,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2118,31 +2139,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>120</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2224,7 +2245,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2241,7 +2262,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2307,7 +2328,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2323,7 +2344,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2333,49 +2354,115 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q45" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>141</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>142</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>42</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>143</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2085.8200000000002</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>139</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>140</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>141</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>145</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>127</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>42</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>56</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2141.0450000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>146</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>147</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>148</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2579,10 +2666,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 1:40 PM</t>
+    <t>Sunday, 8 June, 2025 1:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -431,7 +431,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
@@ -449,7 +452,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 1:49 PM</t>
+    <t>Sunday, 8 June, 2025 1:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2358,10 +2361,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,11 +2390,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>28</v>
@@ -2403,7 +2406,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2432,13 +2435,13 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="P48" s="13">
-        <v>2141.0450000000001</v>
+        <v>2143.0450000000001</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c t="s" r="A49" s="14">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2446,13 +2449,13 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c t="s" r="G49" s="15">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
       <c t="s" r="K49" s="17">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>65.3400</t>
   </si>
   <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -380,6 +392,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -392,9 +413,6 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -431,10 +449,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
@@ -452,7 +467,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 1:57 PM</t>
+    <t>Sunday, 8 June, 2025 2:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1339,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1334,11 +1349,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1350,14 +1365,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1367,11 +1382,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1383,31 +1398,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1416,31 +1431,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1466,11 +1481,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1482,14 +1497,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1506,7 +1521,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1522,7 +1537,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1532,11 +1547,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>28</v>
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1588,7 +1603,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1598,14 +1613,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1638,7 +1653,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1654,7 +1669,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1664,11 +1679,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1680,28 +1695,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1713,7 +1728,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1726,18 +1741,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1753,7 +1768,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1803,7 +1818,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1819,7 +1834,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1829,11 +1844,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -1845,31 +1860,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1878,31 +1893,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,11 +1943,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1944,31 +1959,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1977,28 +1992,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>28</v>
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2043,7 +2058,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2060,14 +2075,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2100,7 +2115,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2116,7 +2131,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2126,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2175,31 +2190,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,20 +2223,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2232,7 +2247,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2241,31 +2256,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2274,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2307,31 +2322,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>127</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2347,13 +2362,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2364,7 +2379,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2373,31 +2388,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2406,66 +2421,132 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>147</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>148</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>46</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>149</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2143.0450000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>147</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>148</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>149</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>151</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>35</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>46</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>60</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2172.0349999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>152</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>153</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>154</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2679,10 +2760,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 2:02 PM</t>
+    <t>Sunday, 8 June, 2025 3:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 3:03 PM</t>
+    <t>Sunday, 8 June, 2025 3:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 3:04 PM</t>
+    <t>Sunday, 8 June, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -287,6 +287,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -305,6 +311,15 @@
     <t>183.1500</t>
   </si>
   <si>
+    <t>MOSAPRIDE 5MG 10 TAB</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -312,6 +327,15 @@
   </si>
   <si>
     <t>37.6200</t>
+  </si>
+  <si>
+    <t>NEOCARBON 30 CAPS</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
   </si>
   <si>
     <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
@@ -1867,7 +1891,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,11 +1901,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -1893,31 +1917,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1926,7 +1950,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1939,18 +1963,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1959,31 +1983,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,31 +2016,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,14 +2066,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,11 +2099,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2091,31 +2115,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2231,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2230,24 +2254,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2289,31 +2313,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,7 +2346,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,31 +2379,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2405,11 +2429,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>35</v>
@@ -2421,7 +2445,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2438,14 +2462,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,14 +2478,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,14 +2495,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2504,49 +2528,148 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>67</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>46</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>153</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>155</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>156</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>46</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>157</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>159</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>35</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>46</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>60</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>61</v>
       </c>
-      <c t="s" r="Q49" s="12">
+      <c t="s" r="Q52" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2172.0349999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>152</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>153</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>154</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2384.0349999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>160</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>161</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>162</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2770,10 +2893,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -311,13 +311,13 @@
     <t>183.1500</t>
   </si>
   <si>
-    <t>MOSAPRIDE 5MG 10 TAB</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
   </si>
   <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
@@ -491,7 +491,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 3:12 PM</t>
+    <t>Sunday, 8 June, 2025 3:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1996,7 +1996,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2639,7 +2639,7 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>2384.0349999999999</v>
+        <v>2485.5349999999999</v>
       </c>
       <c r="Q53" s="13"/>
     </row>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 3:14 PM</t>
+    <t>Sunday, 8 June, 2025 3:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 3:20 PM</t>
+    <t>Sunday, 8 June, 2025 3:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -47,22 +47,25 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>13:1</t>
   </si>
   <si>
     <t>93.00</t>
@@ -95,7 +98,7 @@
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>83.00</t>
@@ -116,7 +119,7 @@
     <t>BUSCOPAN 20MG/ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>51.00</t>
@@ -128,6 +131,9 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -146,352 +152,352 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>183.1500</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NEOCARBON 30 CAPS</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>65.7500</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TROPHIC SILICONE GEL</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>61:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>رباط ضغط 12سم</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>رباط ضغط 15سم</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>183.1500</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NEOCARBON 30 CAPS</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>82.5000</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PROSTRIDE 5MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>60.3900</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
-  </si>
-  <si>
-    <t>65.75</t>
-  </si>
-  <si>
-    <t>65.7500</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TROPHIC SILICONE GEL</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>59:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>رباط ضغط 12سم</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>رباط ضغط 15سم</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>فرشه اسنان SENSODYNE</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>لونا انبوبه كبير</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>لونا انبوبه كبير</t>
-  </si>
-  <si>
-    <t>Sunday, 8 June, 2025 3:22 PM</t>
+    <t>Sunday, 8 June, 2025 3:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1149,7 +1155,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1158,14 +1164,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1175,14 +1181,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1191,14 +1197,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1208,14 +1214,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1224,14 +1230,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1241,14 +1247,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1257,14 +1263,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1274,14 +1280,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1290,14 +1296,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1307,14 +1313,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1323,14 +1329,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1340,14 +1346,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1356,14 +1362,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1373,14 +1379,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1389,14 +1395,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1406,14 +1412,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1422,14 +1428,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1439,14 +1445,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1455,31 +1461,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1488,14 +1494,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1505,14 +1511,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1521,7 +1527,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1538,14 +1544,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1554,14 +1560,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1571,14 +1577,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1587,14 +1593,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1604,14 +1610,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1620,14 +1626,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1637,14 +1643,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1653,14 +1659,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1670,14 +1676,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1686,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1710,7 +1716,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1726,7 +1732,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1743,7 +1749,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1759,13 +1765,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1776,7 +1782,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1792,7 +1798,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1825,7 +1831,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1835,14 +1841,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1851,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1868,14 +1874,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1884,14 +1890,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1901,14 +1907,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1917,14 +1923,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,14 +1940,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1950,31 +1956,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1983,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,14 +2006,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2016,14 +2022,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2033,14 +2039,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,14 +2072,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2082,7 +2088,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2115,20 +2121,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2136,10 +2142,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,14 +2171,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,14 +2187,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2198,14 +2204,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2214,14 +2220,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,14 +2237,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,14 +2303,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2313,14 +2319,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2330,14 +2336,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2346,31 +2352,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2396,14 +2402,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,31 +2418,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,20 +2451,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2485,13 +2491,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2502,7 +2508,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2518,13 +2524,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2535,7 +2541,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2551,13 +2557,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2568,7 +2574,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,31 +2583,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2610,31 +2616,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2645,7 +2651,7 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2653,13 +2659,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -131,141 +131,144 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -416,9 +419,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 4:24 PM</t>
+    <t>Sunday, 8 June, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,7 +1402,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1412,11 +1412,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1445,11 +1445,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1461,28 +1461,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1511,11 +1511,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1544,11 +1544,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1610,11 +1610,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1643,14 +1643,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1676,11 +1676,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1692,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1765,13 +1765,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1831,7 +1831,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1841,11 +1841,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1857,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1969,15 +1969,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2039,11 +2039,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2204,11 +2204,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2220,14 +2220,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2253,14 +2253,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,11 +2270,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2303,11 +2303,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2365,15 +2365,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2385,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2431,7 +2431,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2464,7 +2464,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2497,7 +2497,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2530,7 +2530,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2563,7 +2563,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2596,7 +2596,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2629,15 +2629,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -1633,7 +1633,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -215,6 +215,9 @@
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -435,9 +438,6 @@
   </si>
   <si>
     <t>حبايه</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>3.00</t>
@@ -1237,7 +1237,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1336,7 +1336,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1600,7 +1600,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1633,7 +1633,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1666,7 +1666,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1676,11 +1676,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1692,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1775,11 +1775,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1808,14 +1808,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1824,14 +1824,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1841,11 +1841,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1857,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1956,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2039,11 +2039,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2121,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,11 +2138,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2187,14 +2187,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,11 +2204,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2253,14 +2253,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,11 +2270,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2303,11 +2303,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2418,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2451,14 +2451,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2557,7 +2557,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 4:26 PM</t>
+    <t>Sunday, 8 June, 2025 4:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -65,7 +65,7 @@
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
-    <t>13:1</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>93.00</t>
@@ -389,7 +389,7 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:18</t>
+    <t>0:17</t>
   </si>
   <si>
     <t>141.00</t>
@@ -482,7 +482,7 @@
     <t>فرشه اسنان SENSODYNE</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>65.00</t>
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t>لونا انبوبه كبير</t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>Sunday, 8 June, 2025 4:27 PM</t>
@@ -2227,7 +2224,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2491,7 +2488,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2524,7 +2521,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2623,7 +2620,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2651,7 +2648,7 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2659,13 +2656,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -98,207 +98,207 @@
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>8.1600</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -353,7 +353,7 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>108.0000</t>
@@ -1300,7 +1300,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1310,11 +1310,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1343,11 +1343,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1359,14 +1359,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1376,11 +1376,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1442,11 +1442,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1458,28 +1458,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1541,11 +1541,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1557,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,11 +1574,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1607,11 +1607,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1640,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>66</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1656,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1689,14 +1689,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1706,11 +1706,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1722,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,11 +1739,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1768,15 +1768,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1805,14 +1805,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1821,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,11 +1838,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1854,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1904,11 +1904,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1920,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1960,13 +1960,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2131,11 +2131,11 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2290,7 +2290,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2362,7 +2362,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2389,7 +2389,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2428,7 +2428,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2439,7 +2439,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2455,13 +2455,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2488,13 +2488,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2505,7 +2505,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2521,13 +2521,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2538,7 +2538,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2554,13 +2554,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2593,7 +2593,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2626,15 +2626,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
-    <t>61:0</t>
+    <t>59:0</t>
   </si>
   <si>
     <t>2.50</t>
@@ -1498,7 +1498,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2356,7 +2356,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>26.00</t>
@@ -476,9 +476,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>فرشه اسنان SENSODYNE</t>
   </si>
   <si>
@@ -494,7 +491,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 4:27 PM</t>
+    <t>Sunday, 8 June, 2025 4:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1528,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2571,7 +2568,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2580,14 +2577,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2597,11 +2594,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2613,14 +2610,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2648,7 +2645,7 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2656,13 +2653,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -2023,7 +2023,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -296,145 +296,145 @@
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>183.1500</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NEOCARBON 30 CAPS</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>65.7500</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TROPHIC SILICONE GEL</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>59:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>183.1500</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NEOCARBON 30 CAPS</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>82.5000</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PROSTRIDE 5MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>60.3900</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
-  </si>
-  <si>
-    <t>65.75</t>
-  </si>
-  <si>
-    <t>65.7500</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TROPHIC SILICONE GEL</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>59:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -1429,7 +1429,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1924,7 +1924,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2033,11 +2033,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2066,11 +2066,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2082,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2115,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2165,11 +2165,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2198,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2231,11 +2231,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2247,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,11 +2264,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2313,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2363,11 +2363,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2412,14 +2412,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2429,14 +2429,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>95</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,7 +2502,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>95</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,7 +2535,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>95</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2617,7 +2617,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -266,7 +266,7 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>5:5</t>
   </si>
   <si>
     <t>24.00</t>
@@ -2155,7 +2155,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -47,57 +47,57 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 4:28 PM</t>
+    <t>Sunday, 8 June, 2025 4:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1149,7 +1149,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1158,14 +1158,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1175,14 +1175,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1191,14 +1191,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1208,14 +1208,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1224,14 +1224,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1241,14 +1241,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1257,14 +1257,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1274,14 +1274,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1290,14 +1290,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1314,7 +1314,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1330,7 +1330,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1347,7 +1347,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1380,7 +1380,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1396,7 +1396,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1413,7 +1413,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1429,7 +1429,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1446,7 +1446,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1479,7 +1479,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1495,7 +1495,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1512,7 +1512,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1528,7 +1528,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1545,7 +1545,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1578,7 +1578,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1594,7 +1594,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1611,7 +1611,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1627,7 +1627,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1677,7 +1677,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1710,7 +1710,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,7 +1743,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1759,7 +1759,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1776,7 +1776,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1792,7 +1792,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1842,7 +1842,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1875,7 +1875,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1891,7 +1891,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1908,7 +1908,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1924,7 +1924,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1941,7 +1941,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,7 +1974,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1990,7 +1990,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2007,7 +2007,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,7 +2040,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2056,7 +2056,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2073,7 +2073,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2089,7 +2089,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2106,7 +2106,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2139,7 +2139,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,7 +2172,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2188,7 +2188,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2205,7 +2205,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2221,7 +2221,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2238,7 +2238,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2271,7 +2271,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2304,7 +2304,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2320,7 +2320,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2337,7 +2337,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,7 +2370,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2403,7 +2403,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2601,7 +2601,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2634,7 +2634,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -404,6 +404,15 @@
     <t>65.7500</t>
   </si>
   <si>
+    <t>TOLA HAIR OIL REPLACEMENT 100 ML</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>219.0000</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -491,7 +500,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 4:29 PM</t>
+    <t>Sunday, 8 June, 2025 4:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2320,7 +2329,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2346,31 +2355,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2386,24 +2395,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,31 +2421,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,7 +2487,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>148</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>141</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,7 +2544,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,7 +2577,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2627,49 +2636,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2485.5349999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>160</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>161</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>162</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>144</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>46</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>60</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2704.5349999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>163</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>164</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>165</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2908,10 +2950,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -500,7 +500,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 4:45 PM</t>
+    <t>Sunday, 8 June, 2025 5:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -224,18 +224,18 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -287,6 +287,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>IVY-A SYRUP</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
@@ -500,7 +509,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 5:13 PM</t>
+    <t>Sunday, 8 June, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1711,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1900,21 +1909,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -1926,7 +1935,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1943,7 +1952,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1966,13 +1975,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1983,7 +1992,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1999,13 +2008,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2016,7 +2025,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2032,7 +2041,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2049,7 +2058,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2065,7 +2074,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2098,7 +2107,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2131,24 +2140,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2164,17 +2173,17 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2197,7 +2206,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2214,7 +2223,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,7 +2256,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2263,7 +2272,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2313,7 +2322,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2362,7 +2371,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2388,31 +2397,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2428,24 +2437,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2454,31 +2463,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>148</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,7 +2529,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>144</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,7 +2586,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,7 +2619,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2669,49 +2678,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2704.5349999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>163</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>164</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>165</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>147</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>46</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>60</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2827.5349999999999</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>166</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>167</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>168</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2955,10 +2997,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 5:28 PM</t>
+    <t>Sunday, 8 June, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>DOLCYL 2MG 30 TAB.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -491,7 +500,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
@@ -509,7 +521,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 5:40 PM</t>
+    <t>Sunday, 8 June, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1332,7 +1344,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1348,7 +1360,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1358,14 +1370,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1374,14 +1386,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1398,7 +1410,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1414,7 +1426,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1424,11 +1436,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1440,14 +1452,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1457,11 +1469,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1473,31 +1485,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1506,31 +1518,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1539,14 +1551,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1556,11 +1568,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1572,14 +1584,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1596,7 +1608,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1612,7 +1624,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1622,14 +1634,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1638,14 +1650,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1655,14 +1667,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1678,7 +1690,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1688,14 +1700,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1704,14 +1716,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1728,7 +1740,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1744,7 +1756,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1770,20 +1782,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1810,13 +1822,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1827,7 +1839,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1853,14 +1865,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1902,20 +1914,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1926,7 +1938,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1942,24 +1954,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2008,13 +2020,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2025,7 +2037,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2041,13 +2053,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2058,7 +2070,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2074,7 +2086,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2091,7 +2103,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2107,7 +2119,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2140,7 +2152,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2173,24 +2185,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2206,24 +2218,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2239,7 +2251,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2256,7 +2268,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2289,7 +2301,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2305,7 +2317,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,14 +2327,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2355,7 +2367,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2371,7 +2383,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2388,7 +2400,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2404,7 +2416,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,31 +2442,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2470,24 +2482,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,31 +2508,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,31 +2541,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,31 +2574,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>147</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2602,13 +2614,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2619,7 +2631,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2635,13 +2647,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2652,7 +2664,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2668,24 +2680,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2701,59 +2713,92 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2827.5349999999999</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>166</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>167</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>168</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>169</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>150</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>50</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>64</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2837.2150000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>170</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>171</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>172</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3002,10 +3047,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 5:41 PM</t>
+    <t>Sunday, 8 June, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -179,9 +179,21 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -200,6 +212,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -242,9 +263,6 @@
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -305,6 +323,27 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
@@ -365,6 +404,15 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -461,9 +509,6 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -500,10 +545,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
+    <t>22.0000</t>
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
@@ -521,7 +563,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 5:43 PM</t>
+    <t>Sunday, 8 June, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1591,7 +1633,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1641,7 +1683,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1657,7 +1699,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,11 +1709,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1683,14 +1725,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1700,14 +1742,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1716,14 +1758,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1756,7 +1798,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1766,14 +1808,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1806,7 +1848,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1822,13 +1864,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1839,7 +1881,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1855,7 +1897,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1872,7 +1914,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1881,28 +1923,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1914,14 +1956,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1947,31 +1989,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1980,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,11 +2039,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>32</v>
@@ -2013,28 +2055,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2046,31 +2088,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2079,14 +2121,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,14 +2138,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,7 +2187,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2162,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2178,31 +2220,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2211,28 +2253,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2244,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2277,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,11 +2336,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2310,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2367,7 +2409,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2383,17 +2425,17 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2416,7 +2458,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2449,7 +2491,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2475,31 +2517,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,11 +2567,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2541,31 +2583,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,31 +2616,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2607,31 +2649,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2657,14 +2699,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,31 +2715,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>164</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,14 +2748,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2723,14 +2765,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,14 +2781,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2756,49 +2798,214 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>170</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>77</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>50</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>171</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>77</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>50</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>174</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>176</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>77</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>50</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>177</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>180</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>50</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>181</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2837.2150000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>170</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>171</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>172</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>183</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>109</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>50</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>71</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2920.2449999999999</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>184</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>185</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>186</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3052,10 +3259,35 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -107,9 +122,6 @@
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -245,9 +257,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
     <t>34.0000</t>
   </si>
   <si>
@@ -470,6 +479,18 @@
     <t>65.7500</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>TOLA HAIR OIL REPLACEMENT 100 ML</t>
   </si>
   <si>
@@ -551,9 +572,6 @@
     <t>فرشه اسنان SENSODYNE</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -563,7 +581,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 6:01 PM</t>
+    <t>Sunday, 8 June, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1221,7 +1239,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1230,14 +1248,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1247,14 +1265,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1280,14 +1298,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1296,14 +1314,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1313,14 +1331,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1329,14 +1347,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1346,14 +1364,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1362,14 +1380,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1386,7 +1404,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1395,14 +1413,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1412,14 +1430,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1428,14 +1446,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1445,11 +1463,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1461,14 +1479,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1485,7 +1503,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1501,7 +1519,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1511,14 +1529,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1527,14 +1545,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1544,14 +1562,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1560,31 +1578,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1593,31 +1611,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1626,14 +1644,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1643,14 +1661,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1683,7 +1701,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1716,7 +1734,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1732,7 +1750,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1742,14 +1760,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1775,14 +1793,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,14 +1826,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1841,14 +1859,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1864,7 +1882,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1874,14 +1892,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1897,7 +1915,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1914,7 +1932,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1930,13 +1948,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1947,7 +1965,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1963,13 +1981,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1980,7 +1998,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,14 +2007,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,14 +2040,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2039,14 +2057,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2055,20 +2073,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2079,7 +2097,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2095,24 +2113,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2161,7 +2179,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2189,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,14 +2222,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2227,13 +2245,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2260,13 +2278,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2277,7 +2295,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2293,7 +2311,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2310,7 +2328,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2326,7 +2344,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2343,7 +2361,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,7 +2394,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2392,7 +2410,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2409,7 +2427,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2425,24 +2443,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2458,24 +2476,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2491,7 +2509,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2508,7 +2526,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2524,7 +2542,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2541,7 +2559,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2557,7 +2575,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,14 +2585,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2607,7 +2625,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2623,7 +2641,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2640,7 +2658,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2656,7 +2674,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,31 +2700,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,31 +2766,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,31 +2799,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,20 +2832,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2838,7 +2856,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2854,13 +2872,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2871,7 +2889,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>109</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,31 +2898,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>169</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,20 +2931,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2937,7 +2955,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2953,59 +2971,125 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2920.2449999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>184</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>185</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>186</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>16</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>54</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>187</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>189</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>112</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>54</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>75</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3050.2449999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>190</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>191</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>192</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3284,10 +3368,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -278,6 +287,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -329,18 +347,12 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>14.4000</t>
   </si>
   <si>
@@ -503,6 +515,15 @@
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TROPHIC SILICONE GEL</t>
   </si>
   <si>
@@ -581,7 +602,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 6:15 PM</t>
+    <t>Sunday, 8 June, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1833,7 +1854,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1849,7 +1870,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1880,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1882,7 +1903,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1892,14 +1913,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1915,7 +1936,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1925,14 +1946,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1948,7 +1969,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1965,7 +1986,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1981,13 +2002,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2014,7 +2035,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2031,7 +2052,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2040,28 +2061,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2073,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,14 +2111,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2106,31 +2127,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2139,14 +2160,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,14 +2177,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2172,31 +2193,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,14 +2226,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2222,14 +2243,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2238,14 +2259,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2271,31 +2292,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,7 +2325,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2321,11 +2342,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2337,31 +2358,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2370,7 +2391,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2387,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2403,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2420,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2436,14 +2457,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,14 +2474,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2469,31 +2490,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,11 +2540,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2535,31 +2556,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2606,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,11 +2639,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2634,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,14 +2672,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2667,14 +2688,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,14 +2705,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,11 +2738,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2733,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2750,14 +2771,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2773,13 +2794,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2806,7 +2827,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2816,11 +2837,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2832,31 +2853,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,14 +2886,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2882,14 +2903,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2898,31 +2919,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,14 +2952,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2948,14 +2969,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2964,14 +2985,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2981,14 +3002,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2997,14 +3018,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3014,14 +3035,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,14 +3051,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3047,49 +3068,148 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>190</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>84</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>54</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>191</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>193</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>16</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>54</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>194</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3050.2449999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>190</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>191</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>192</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>116</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>54</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>78</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3149.2449999999999</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>197</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>198</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>199</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3378,10 +3498,25 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -224,6 +236,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -263,9 +284,6 @@
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>34.0000</t>
   </si>
   <si>
@@ -392,9 +410,6 @@
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>132.00</t>
-  </si>
-  <si>
     <t>132.0000</t>
   </si>
   <si>
@@ -539,6 +554,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -587,7 +611,16 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
@@ -602,7 +635,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 6:32 PM</t>
+    <t>Sunday, 8 June, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1645,18 +1678,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1665,31 +1698,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1698,7 +1731,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1715,11 +1748,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1731,14 +1764,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1788,7 +1821,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1804,7 +1837,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1814,14 +1847,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1830,14 +1863,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1847,11 +1880,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1863,7 +1896,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1880,14 +1913,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1896,14 +1929,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1913,14 +1946,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1929,14 +1962,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1946,11 +1979,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1962,14 +1995,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1979,14 +2012,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1995,14 +2028,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2012,14 +2045,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2035,7 +2068,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2052,7 +2085,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2068,13 +2101,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2101,7 +2134,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2118,7 +2151,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2127,28 +2160,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2160,14 +2193,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2177,14 +2210,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2193,31 +2226,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2243,14 +2276,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2259,31 +2292,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2299,7 +2332,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2309,14 +2342,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,14 +2358,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2342,14 +2375,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2358,31 +2391,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2431,13 +2464,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2448,7 +2481,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2474,14 +2507,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2490,14 +2523,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2507,11 +2540,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2523,14 +2556,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2540,14 +2573,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2556,31 +2589,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2589,14 +2622,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2606,11 +2639,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2622,31 +2655,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,11 +2738,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2721,14 +2754,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,14 +2771,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2754,14 +2787,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,14 +2804,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2787,14 +2820,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,11 +2837,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2820,14 +2853,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,14 +2870,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2886,31 +2919,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,7 +2969,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2959,24 +2992,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,31 +3018,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,31 +3051,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,31 +3084,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3084,31 +3117,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3117,31 +3150,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3150,66 +3183,198 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>198</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>53</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>58</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>199</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>202</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>53</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>58</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>189</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>204</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>16</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>58</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>205</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3149.2449999999999</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>197</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>198</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>199</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>207</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>122</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>58</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>85</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3426.9749999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>208</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>209</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>210</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3513,10 +3678,30 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -155,7 +155,7 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>19.2000</t>
+    <t>38.4000</t>
   </si>
   <si>
     <t>CERVITAM 20 CAPS.</t>
@@ -611,10 +611,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>15:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1606,7 +1606,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1623,7 +1623,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -3344,7 +3344,7 @@
     </row>
     <row r="70" ht="24.75" customHeight="1">
       <c r="P70" s="13">
-        <v>3426.9749999999999</v>
+        <v>3448.1750000000002</v>
       </c>
       <c r="Q70" s="13"/>
     </row>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -635,7 +635,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 6:34 PM</t>
+    <t>Sunday, 8 June, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -359,6 +359,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">GABAVERONA 400 MG  CAPS</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
     <t>IVY-A SYRUP</t>
   </si>
   <si>
@@ -405,6 +414,15 @@
   </si>
   <si>
     <t>183.1500</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
   </si>
   <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
@@ -2313,10 +2331,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2325,31 +2343,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2375,7 +2393,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2398,7 +2416,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2424,7 +2442,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2441,7 +2459,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2464,13 +2482,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2481,7 +2499,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2497,24 +2515,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2556,7 +2574,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2629,7 +2647,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2646,7 +2664,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2662,24 +2680,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2728,24 +2746,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2761,7 +2779,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2778,7 +2796,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2794,7 +2812,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,11 +2822,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2886,7 +2904,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2985,31 +3003,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3025,7 +3043,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3035,11 +3053,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3051,31 +3069,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3084,31 +3102,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3117,31 +3135,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3183,7 +3201,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>197</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>122</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,7 +3258,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>201</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3249,7 +3267,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3289,7 +3307,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3306,7 +3324,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3332,49 +3350,115 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>210</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>16</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>58</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>211</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>213</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>125</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>58</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>85</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>86</v>
       </c>
-      <c t="s" r="Q69" s="12">
+      <c t="s" r="Q71" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3448.1750000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>208</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>209</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>210</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3513.02</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>214</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>215</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>216</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3698,10 +3782,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 6:35 PM</t>
+    <t>Sunday, 8 June, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -140,7 +140,7 @@
     <t>BUSCOPAN 20MG/ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>51.00</t>
@@ -386,9 +386,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
   </si>
   <si>
     <t>16.8300</t>
@@ -2416,7 +2416,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2525,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2558,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2624,11 +2624,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2690,11 +2690,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2723,11 +2723,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2739,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2855,11 +2855,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2871,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2921,11 +2921,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2937,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,11 +2954,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3053,11 +3053,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3102,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3192,7 +3192,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3258,7 +3258,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,7 +3291,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3406,7 +3406,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -2449,7 +2449,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2581,7 +2581,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2647,7 +2647,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -653,7 +662,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 6:36 PM</t>
+    <t>Sunday, 8 June, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1542,7 +1551,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1558,7 +1567,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1575,7 +1584,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1591,7 +1600,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1641,7 +1650,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1657,7 +1666,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,11 +1709,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1716,31 +1725,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1749,20 +1758,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1773,7 +1782,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1822,7 +1831,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,11 +1841,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1921,7 +1930,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2020,7 +2029,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2053,7 +2062,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2136,7 +2145,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2152,7 +2161,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2185,13 +2194,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2224,7 +2233,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2235,7 +2244,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>107</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2310,20 +2319,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2334,7 +2343,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2350,13 +2359,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2364,10 +2373,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2376,31 +2385,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,11 +2435,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,7 +2501,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2515,13 +2524,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2532,7 +2541,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2548,13 +2557,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2581,7 +2590,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2647,7 +2656,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2680,7 +2689,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2713,7 +2722,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2746,17 +2755,17 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2779,17 +2788,17 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2812,7 +2821,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,7 +2871,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2928,7 +2937,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,11 +2963,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3010,7 +3019,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3053,11 +3062,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3076,13 +3085,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3093,7 +3102,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3109,24 +3118,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3175,24 +3184,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,20 +3210,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3225,7 +3234,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>197</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,31 +3243,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>200</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3274,13 +3283,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3291,7 +3300,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3307,13 +3316,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3324,7 +3333,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,31 +3342,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,31 +3375,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3406,59 +3415,92 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3513.02</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>214</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>215</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>216</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>46</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>61</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>88</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3540.02</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>217</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>218</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>219</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3792,10 +3834,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -65,93 +65,105 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>114.8400</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
     <t>BUSCOPAN 20MG/ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -236,9 +248,6 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -377,6 +386,15 @@
     <t>39.1050</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>IVY-A SYRUP</t>
   </si>
   <si>
@@ -437,6 +455,12 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -563,6 +587,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>TROPHIC SILICONE GEL</t>
   </si>
   <si>
@@ -638,31 +668,19 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>فرشه اسنان SENSODYNE</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 6:37 PM</t>
+    <t>Sunday, 8 June, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1336,7 +1354,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1346,14 +1364,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1402,7 +1420,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1428,14 +1446,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1445,11 +1463,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -1461,14 +1479,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1478,11 +1496,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1494,14 +1512,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1511,11 +1529,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1527,14 +1545,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1544,11 +1562,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1560,14 +1578,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1584,7 +1602,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1600,7 +1618,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1617,7 +1635,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1650,7 +1668,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1676,14 +1694,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1692,14 +1710,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1709,14 +1727,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1725,14 +1743,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1771,18 +1789,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1791,31 +1809,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1824,7 +1842,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1841,11 +1859,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1914,7 +1932,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1930,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1947,7 +1965,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1963,7 +1981,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2046,7 +2064,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2062,7 +2080,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2095,7 +2113,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2105,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2161,7 +2179,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2178,7 +2196,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2194,7 +2212,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2227,13 +2245,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2266,7 +2284,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2277,7 +2295,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2303,14 +2321,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2336,14 +2354,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2352,20 +2370,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2376,7 +2394,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2392,13 +2410,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2406,10 +2424,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2418,31 +2436,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2451,31 +2469,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2484,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2501,14 +2519,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2517,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2534,14 +2552,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2550,31 +2568,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2590,7 +2608,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2607,7 +2625,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2623,24 +2641,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2649,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2682,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2699,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2722,24 +2740,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2748,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2765,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2781,31 +2799,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2814,14 +2832,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2831,14 +2849,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2847,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2864,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2880,31 +2898,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2930,14 +2948,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2996,14 +3014,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3012,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3029,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3062,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3085,7 +3103,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3095,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3111,28 +3129,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3144,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3161,11 +3179,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3210,31 +3228,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3243,31 +3261,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3276,31 +3294,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3309,31 +3327,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3342,31 +3360,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>210</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3375,31 +3393,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3408,31 +3426,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3441,66 +3459,198 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>217</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>60</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>65</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>218</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>220</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>60</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>65</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>208</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>221</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>16</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>65</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>126</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3540.02</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>217</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>218</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>219</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>39</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>65</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>91</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3898.9200000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>223</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>224</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>225</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3839,10 +3989,30 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -275,9 +284,6 @@
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
     <t>20.7900</t>
   </si>
   <si>
@@ -356,15 +362,12 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:5</t>
+    <t>5:4</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -680,7 +683,7 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 7:13 PM</t>
+    <t>Sunday, 8 June, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1915,7 +1918,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1925,14 +1928,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1941,14 +1944,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1965,7 +1968,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1981,7 +1984,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1998,7 +2001,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2014,7 +2017,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,14 +2093,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,14 +2126,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2139,14 +2142,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2156,14 +2159,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2179,7 +2182,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2189,14 +2192,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2205,14 +2208,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2222,14 +2225,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2238,14 +2241,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2255,11 +2258,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2271,28 +2274,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2304,7 +2307,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2317,18 +2320,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2337,14 +2340,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,14 +2357,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,14 +2390,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2403,31 +2406,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2436,14 +2439,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,14 +2456,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2469,14 +2472,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,11 +2489,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2502,31 +2505,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2535,14 +2538,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,11 +2555,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2568,14 +2571,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,14 +2588,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2601,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,11 +2621,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2634,31 +2637,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2667,28 +2670,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>49</v>
@@ -2700,14 +2703,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,14 +2720,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,7 +2736,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2746,15 +2749,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2766,31 +2769,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,11 +2819,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2832,14 +2835,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2865,14 +2868,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2885,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,28 +2901,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2931,28 +2934,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2964,14 +2967,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,14 +2984,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3017,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,14 +3033,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3050,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,14 +3066,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,14 +3083,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,14 +3099,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,11 +3116,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3129,14 +3132,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3162,14 +3165,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,14 +3182,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3202,7 +3205,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,11 +3215,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3228,14 +3231,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,14 +3248,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,7 +3264,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3274,18 +3277,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,31 +3297,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,14 +3347,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,31 +3363,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,14 +3413,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3443,14 +3446,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>39</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,7 +3462,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>39</v>
@@ -3492,7 +3495,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3509,14 +3512,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>219</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3525,7 +3528,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3542,14 +3545,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>182</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3565,7 +3568,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,14 +3578,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3598,7 +3601,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,49 +3611,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3898.9200000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>223</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>39</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>65</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>93</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3965.7600000000002</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>224</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>225</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>226</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4009,10 +4045,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -659,9 +668,6 @@
     <t>رباط ضغط 15سم</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -683,7 +689,16 @@
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 7:24 PM</t>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 8 June, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2769,7 +2784,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2782,15 +2797,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2802,31 +2817,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2842,7 +2857,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2875,7 +2890,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2908,7 +2923,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2925,7 +2940,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2941,17 +2956,17 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2974,17 +2989,17 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3007,7 +3022,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3024,7 +3039,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3040,7 +3055,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3057,7 +3072,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3073,7 +3088,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3123,7 +3138,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3139,7 +3154,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3149,11 +3164,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3205,7 +3220,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3271,7 +3286,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3297,7 +3312,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3310,18 +3325,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3337,24 +3352,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3370,7 +3385,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3403,24 +3418,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3453,7 +3468,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3462,7 +3477,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>220</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,7 +3576,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3644,49 +3659,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3965.7600000000002</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>224</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>225</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>39</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>65</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>93</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>226</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>60</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>65</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>227</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4017.7600000000002</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>229</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>230</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>231</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4050,10 +4131,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -350,13 +350,16 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
+    <t>0:10</t>
+  </si>
+  <si>
     <t>108.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>52.9200</t>
+  </si>
+  <si>
+    <t>0:6</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
@@ -419,6 +422,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
   </si>
   <si>
@@ -632,6 +644,9 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -686,6 +701,12 @@
     <t>فرشه اسنان SENSODYNE</t>
   </si>
   <si>
+    <t>فيبكس 15مل</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
@@ -698,7 +719,7 @@
     <t>22.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 7:40 PM</t>
+    <t>Sunday, 8 June, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2362,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,14 +2393,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,7 +2426,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2421,14 +2442,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,11 +2459,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2454,7 +2475,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2471,11 +2492,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2487,7 +2508,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2504,11 +2525,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2520,7 +2541,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2537,7 +2558,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2553,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2574,7 +2595,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2586,7 +2607,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2607,7 +2628,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2619,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,11 +2690,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2685,31 +2706,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,28 +2739,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>49</v>
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,7 +2805,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2801,11 +2822,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2817,7 +2838,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2830,15 +2851,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2850,31 +2871,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,11 +2921,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,28 +3003,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3015,28 +3036,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3119,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3138,7 +3159,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3154,7 +3175,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3185,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3220,7 +3241,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,11 +3251,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3284,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,11 +3317,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3350,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,7 +3366,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3358,18 +3379,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,31 +3399,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,20 +3465,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3468,7 +3489,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3484,7 +3505,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3527,11 +3548,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>39</v>
@@ -3543,7 +3564,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3560,14 +3581,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,10 +3618,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>222</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3626,14 +3647,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>186</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3692,14 +3713,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3725,49 +3746,148 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4017.7600000000002</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>229</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>230</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>12</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>65</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>72</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>39</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>65</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>93</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>233</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>60</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>65</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>234</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4121.04</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>236</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>237</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>238</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4141,10 +4261,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -521,6 +530,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>ORCHABEPOST 1.5% EYE DPS. 10 ML</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -578,6 +590,15 @@
     <t>65.7500</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -638,9 +659,6 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -719,7 +737,16 @@
     <t>22.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 7:43 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 8 June, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2053,7 +2080,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2070,7 +2097,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2086,7 +2113,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2129,11 +2156,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2145,7 +2172,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2185,7 +2212,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2195,14 +2222,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2218,7 +2245,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2244,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2284,7 +2311,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2301,7 +2328,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2317,7 +2344,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2350,13 +2377,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2383,24 +2410,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2426,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2463,10 +2490,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,20 +2502,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2499,7 +2526,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2515,7 +2542,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2532,7 +2559,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2548,7 +2575,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2562,7 +2589,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2574,31 +2601,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2614,7 +2641,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2624,11 +2651,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,7 +2684,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2680,7 +2707,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2717,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,7 +2750,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2746,13 +2773,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2763,7 +2790,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2779,13 +2806,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2812,7 +2839,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2829,7 +2856,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2855,11 +2882,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2871,7 +2898,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2884,15 +2911,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2904,31 +2931,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2944,7 +2971,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2977,7 +3004,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3010,7 +3037,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3027,7 +3054,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3043,17 +3070,17 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3076,7 +3103,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,11 +3113,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3102,31 +3129,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3168,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,11 +3212,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3245,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3278,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,7 +3294,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3284,11 +3311,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3300,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3317,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3357,7 +3384,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3383,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3399,31 +3426,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3449,11 +3476,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3465,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3482,14 +3509,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3515,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3544,18 +3571,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,31 +3591,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,11 +3674,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>39</v>
@@ -3663,7 +3690,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3680,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,7 +3723,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3713,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>190</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3736,7 +3763,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3762,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,14 +3806,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3812,14 +3839,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3828,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3845,49 +3872,181 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4121.04</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>236</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>65</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>72</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>237</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>238</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>39</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>65</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>96</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>239</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>60</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>65</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>240</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>242</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>243</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>65</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>134</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4356.04</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>245</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>246</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>247</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4276,10 +4435,30 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>8.1600</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -191,9 +203,6 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -401,6 +410,15 @@
     <t>39.1050</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -410,6 +428,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>IVY-A SYRUP</t>
   </si>
   <si>
@@ -665,6 +692,18 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -701,16 +740,16 @@
     <t>رباط ضغط 15سم</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -731,10 +770,13 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
@@ -746,7 +788,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 8:06 PM</t>
+    <t>Sunday, 8 June, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1825,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1793,14 +1835,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1809,14 +1851,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1826,14 +1868,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1842,14 +1884,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1882,24 +1924,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1908,20 +1950,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1932,7 +1974,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1981,7 +2023,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1998,7 +2040,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2014,7 +2056,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2024,14 +2066,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2040,14 +2082,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2064,7 +2106,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2080,7 +2122,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2113,7 +2155,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2130,7 +2172,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2146,7 +2188,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,11 +2231,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2205,7 +2247,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2222,14 +2264,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2245,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2255,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2278,7 +2320,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,14 +2330,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2304,14 +2346,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,14 +2363,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2344,7 +2386,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2361,7 +2403,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2377,7 +2419,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2410,13 +2452,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2443,24 +2485,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2469,14 +2511,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,14 +2528,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2523,10 +2565,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2535,20 +2577,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2559,7 +2601,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2575,13 +2617,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2592,7 +2634,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2608,13 +2650,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2622,7 +2664,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2634,31 +2676,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2667,7 +2709,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2684,14 +2726,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2700,31 +2742,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,14 +2775,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,14 +2792,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2766,14 +2808,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2799,31 +2841,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,14 +2874,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,14 +2891,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2872,7 +2914,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2905,24 +2947,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2931,31 +2973,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +3006,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +3023,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2997,14 +3039,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3056,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,31 +3072,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3087,7 +3129,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3103,7 +3145,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3155,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3129,31 +3171,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3204,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,11 +3221,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3195,14 +3237,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3254,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3235,24 +3277,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3268,7 +3310,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,14 +3320,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,14 +3336,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,14 +3353,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,14 +3419,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3435,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,11 +3452,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3426,14 +3468,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3485,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3518,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3492,14 +3534,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,14 +3551,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,31 +3567,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,11 +3617,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3591,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,14 +3650,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3624,28 +3666,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3657,31 +3699,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,31 +3732,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3730,24 +3772,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,31 +3798,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3796,24 +3838,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>233</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,31 +3864,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>197</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,31 +3897,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3888,31 +3930,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,31 +3963,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3954,31 +3996,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3987,66 +4029,231 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>68</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>75</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4356.04</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>245</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>246</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>247</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>68</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>99</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>252</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>54</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>68</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>134</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>253</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>67</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>68</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>254</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>256</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>257</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>68</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>143</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4620.04</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>259</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>260</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>261</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4455,10 +4662,35 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -209,6 +209,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -296,9 +308,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -626,6 +635,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -788,7 +806,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 8:17 PM</t>
+    <t>Sunday, 8 June, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1963,15 +1981,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1983,31 +2001,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2016,7 +2034,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2033,11 +2051,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2106,7 +2124,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2122,7 +2140,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2165,11 +2183,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2198,14 +2216,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,11 +2249,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2247,7 +2265,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2264,11 +2282,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2280,7 +2298,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2353,7 +2371,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2419,7 +2437,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2436,7 +2454,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2452,7 +2470,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2485,13 +2503,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2518,24 +2536,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2544,14 +2562,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2561,14 +2579,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2598,10 +2616,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2610,20 +2628,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2634,7 +2652,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2650,13 +2668,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2667,7 +2685,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2683,13 +2701,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2716,13 +2734,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2749,13 +2767,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2763,7 +2781,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2775,31 +2793,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2815,7 +2833,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2825,11 +2843,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2841,14 +2859,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2858,7 +2876,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2881,7 +2899,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2891,14 +2909,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,14 +2925,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2924,7 +2942,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2947,13 +2965,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2964,7 +2982,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2980,13 +2998,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3013,7 +3031,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3030,7 +3048,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3056,11 +3074,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3072,7 +3090,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3085,15 +3103,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3105,31 +3123,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3145,7 +3163,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3178,7 +3196,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3211,7 +3229,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3228,7 +3246,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3254,11 +3272,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3270,28 +3288,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3310,17 +3328,17 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3343,7 +3361,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3360,7 +3378,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3376,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3393,7 +3411,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3409,7 +3427,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,14 +3437,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3435,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3459,7 +3477,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3475,7 +3493,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3508,7 +3526,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,11 +3536,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3534,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3567,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3600,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3633,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,31 +3684,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3699,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3716,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3739,24 +3757,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3765,31 +3783,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3798,31 +3816,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3831,31 +3849,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3864,31 +3882,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>238</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,28 +3915,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>39</v>
@@ -3930,7 +3948,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3943,18 +3961,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>39</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,7 +3981,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3976,18 +3994,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>246</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3996,7 +4014,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4009,18 +4027,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>206</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4029,31 +4047,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4062,31 +4080,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,28 +4113,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4128,28 +4146,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4161,28 +4179,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4194,66 +4212,132 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>71</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>72</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>260</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>262</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>263</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>72</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>146</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4620.04</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>259</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>260</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>261</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4675.79</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>265</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>266</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>267</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4687,10 +4771,20 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>38.4000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -740,10 +752,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
   </si>
   <si>
     <t>رباط ضغط 12سم</t>
@@ -764,24 +776,27 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>فرشه اسنان SENSODYNE</t>
   </si>
   <si>
     <t>فيبكس 15مل</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>لونا انبوبه كبير</t>
   </si>
   <si>
@@ -800,13 +815,10 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 8:24 PM</t>
+    <t>Sunday, 8 June, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1909,7 +1921,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1919,14 +1931,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1952,11 +1964,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1992,7 +2004,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2014,15 +2026,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2034,31 +2046,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2067,7 +2079,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2084,11 +2096,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2117,14 +2129,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2133,14 +2145,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2157,7 +2169,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2173,7 +2185,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2183,14 +2195,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2249,14 +2261,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2282,11 +2294,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2298,7 +2310,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2315,11 +2327,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2331,7 +2343,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2348,14 +2360,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2430,14 +2442,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2447,14 +2459,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2480,14 +2492,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,11 +2525,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2529,28 +2541,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2562,20 +2574,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2586,7 +2598,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,14 +2624,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>49</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2628,14 +2640,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2668,24 +2680,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2694,31 +2706,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2727,28 +2739,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2760,28 +2772,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2793,28 +2805,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2826,31 +2838,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,14 +2871,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,11 +2888,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,11 +2921,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2925,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,11 +2987,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2991,31 +3003,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3024,28 +3036,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>49</v>
@@ -3057,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3086,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,7 +3102,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3107,11 +3119,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3123,7 +3135,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3136,15 +3148,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3156,31 +3168,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,14 +3201,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,11 +3218,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3222,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,11 +3251,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3255,14 +3267,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,7 +3300,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3305,11 +3317,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3321,28 +3333,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3354,28 +3366,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3387,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3453,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3477,7 +3489,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3493,7 +3505,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3515,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,11 +3548,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3552,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,14 +3581,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3585,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3609,7 +3621,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3625,7 +3637,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,11 +3647,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3651,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,14 +3680,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3684,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3717,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3746,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,7 +3762,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3763,18 +3775,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,31 +3795,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,31 +3861,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,28 +3894,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3928,7 +3940,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3939,7 +3951,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3955,24 +3967,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>244</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3994,7 +4006,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4005,7 +4017,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>39</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4014,7 +4026,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4027,15 +4039,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>39</v>
@@ -4047,7 +4059,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4060,18 +4072,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>252</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4093,18 +4105,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>212</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,31 +4125,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,28 +4158,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4179,28 +4191,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4212,28 +4224,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4245,28 +4257,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4278,66 +4290,99 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>256</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>76</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>150</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4675.79</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>265</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>266</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>267</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4774.79</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>269</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>270</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>271</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4781,10 +4826,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -221,105 +221,96 @@
     <t>26.7300</t>
   </si>
   <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
   </si>
   <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -590,6 +581,12 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
     <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
   </si>
   <si>
@@ -752,10 +749,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>رباط ضغط 12سم</t>
@@ -818,7 +815,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 8:26 PM</t>
+    <t>Sunday, 8 June, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,15 +2023,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2046,31 +2043,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2079,7 +2076,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2096,11 +2093,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2112,14 +2109,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2129,14 +2126,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2145,14 +2142,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2169,7 +2166,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2185,7 +2182,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2195,14 +2192,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2211,14 +2208,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2228,11 +2225,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2244,14 +2241,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2261,14 +2258,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2277,14 +2274,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2294,11 +2291,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2310,7 +2307,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2327,11 +2324,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2343,7 +2340,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2360,14 +2357,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2383,7 +2380,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2393,14 +2390,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2416,7 +2413,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,14 +2423,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2442,14 +2439,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,14 +2456,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2482,7 +2479,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2499,7 +2496,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2515,7 +2512,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2548,13 +2545,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2581,24 +2578,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2607,14 +2604,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2624,14 +2621,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2661,10 +2658,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2673,20 +2670,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2697,7 +2694,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2713,13 +2710,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2730,7 +2727,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2746,13 +2743,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2779,13 +2776,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2812,13 +2809,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2826,7 +2823,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2838,31 +2835,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2878,7 +2875,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,11 +2885,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2904,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,7 +2918,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2944,7 +2941,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,14 +2951,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2970,14 +2967,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,7 +2984,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3010,13 +3007,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3027,7 +3024,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3043,13 +3040,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3076,7 +3073,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3093,7 +3090,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3119,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3135,7 +3132,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3148,15 +3145,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3168,31 +3165,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3208,7 +3205,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3241,7 +3238,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3274,7 +3271,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3291,7 +3288,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3317,11 +3314,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3333,28 +3330,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3373,21 +3370,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3399,7 +3396,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3416,11 +3413,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3432,7 +3429,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3449,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3465,7 +3462,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3482,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>49</v>
@@ -3498,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,11 +3512,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3531,7 +3528,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3548,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3564,7 +3561,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3581,11 +3578,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3597,7 +3594,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3614,11 +3611,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3630,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3663,7 +3660,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3680,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3696,7 +3693,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3729,7 +3726,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3746,11 +3743,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3762,7 +3759,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3783,7 +3780,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>39</v>
@@ -3795,7 +3792,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3808,15 +3805,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3828,14 +3825,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3849,7 +3846,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3861,7 +3858,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3878,11 +3875,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3894,7 +3891,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3907,15 +3904,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3927,28 +3924,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3960,28 +3957,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>39</v>
@@ -3993,7 +3990,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4006,18 +4003,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>248</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4026,7 +4023,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4039,15 +4036,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>39</v>
@@ -4059,7 +4056,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4072,15 +4069,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>39</v>
@@ -4092,7 +4089,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4105,18 +4102,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>255</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>256</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,7 +4122,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4138,18 +4135,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>258</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>259</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,7 +4155,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4171,15 +4168,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4191,7 +4188,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4204,15 +4201,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4224,7 +4221,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4237,15 +4234,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4257,7 +4254,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4270,15 +4267,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4290,28 +4287,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4323,28 +4320,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>39</v>
@@ -4352,13 +4349,13 @@
     </row>
     <row r="95" ht="24.75" customHeight="1">
       <c r="P95" s="13">
-        <v>4774.79</v>
+        <v>4860.79</v>
       </c>
       <c r="Q95" s="13"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
       <c t="s" r="A96" s="14">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4366,13 +4363,13 @@
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c t="s" r="G96" s="15">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="16"/>
       <c t="s" r="K96" s="17">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L96" s="17"/>
       <c r="M96" s="17"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -281,9 +281,6 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
   </si>
   <si>
@@ -773,49 +770,52 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>فرشه اسنان SENSODYNE</t>
+  </si>
+  <si>
+    <t>فيبكس 15مل</t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
+    <t>لونا انبوبه كبير</t>
+  </si>
+  <si>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
     <t>25:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>فرشه اسنان SENSODYNE</t>
-  </si>
-  <si>
-    <t>فيبكس 15مل</t>
-  </si>
-  <si>
-    <t>لونا انبوبه كبير</t>
-  </si>
-  <si>
-    <t>معجون اسنان المسوك الصغير</t>
-  </si>
-  <si>
-    <t>معجون سنسوداين صغير</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 8:38 PM</t>
+    <t>Sunday, 8 June, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2182,7 +2182,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2196,10 +2196,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2225,11 +2225,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2258,11 +2258,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2291,11 +2291,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2394,10 +2394,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2456,11 +2456,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2489,11 +2489,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2522,11 +2522,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2571,14 +2571,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2588,14 +2588,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2604,14 +2604,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2637,14 +2637,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2687,11 +2687,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2753,11 +2753,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2786,11 +2786,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2819,11 +2819,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2835,14 +2835,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,11 +2852,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2901,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3017,11 +3017,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>49</v>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3050,11 +3050,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>49</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3083,11 +3083,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3248,11 +3248,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3281,11 +3281,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3314,11 +3314,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3347,11 +3347,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3446,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3479,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>49</v>
@@ -3495,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,11 +3512,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3545,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3578,11 +3578,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3611,11 +3611,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3627,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3677,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>39</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3809,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3825,14 +3825,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3875,11 +3875,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3924,14 +3924,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3957,14 +3957,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,11 +3974,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>39</v>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4007,14 +4007,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>246</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>247</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>39</v>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>39</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4139,14 +4139,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4238,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4271,11 +4271,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4304,11 +4304,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4320,14 +4320,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4349,7 +4349,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1">
       <c r="P95" s="13">
-        <v>4860.79</v>
+        <v>4879.79</v>
       </c>
       <c r="Q95" s="13"/>
     </row>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -815,7 +815,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 8:54 PM</t>
+    <t>Sunday, 8 June, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -815,7 +815,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:00 PM</t>
+    <t>Sunday, 8 June, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -263,6 +263,21 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -341,9 +356,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>103.7400</t>
   </si>
   <si>
@@ -419,6 +431,15 @@
     <t>39.1050</t>
   </si>
   <si>
+    <t>GABIMASH 800MG 30 TAB</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -506,9 +527,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -591,6 +609,15 @@
   </si>
   <si>
     <t>52.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
   </si>
   <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
@@ -2149,7 +2176,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2159,11 +2186,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2192,14 +2219,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2232,7 +2259,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2248,7 +2275,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2262,10 +2289,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2274,14 +2301,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2324,7 +2351,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2364,7 +2391,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2380,7 +2407,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2390,14 +2417,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2406,14 +2433,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2423,7 +2450,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2446,7 +2473,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2456,14 +2483,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2479,7 +2506,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2505,14 +2532,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2538,28 +2565,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2588,14 +2615,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2604,31 +2631,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2670,31 +2697,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2703,14 +2730,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2720,11 +2747,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2786,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2802,28 +2829,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2835,31 +2862,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2868,7 +2895,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2885,14 +2912,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2908,24 +2935,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2934,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,14 +2978,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2974,7 +3001,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2984,14 +3011,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3000,31 +3027,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3033,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3050,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,11 +3110,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3099,7 +3126,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3112,18 +3139,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3132,31 +3159,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3198,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3231,31 +3258,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3264,7 +3291,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3330,31 +3357,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3363,7 +3390,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3380,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3403,7 +3430,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,11 +3440,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3429,31 +3456,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3479,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3528,7 +3555,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3545,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3561,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3594,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3660,7 +3687,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3677,11 +3704,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3693,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,11 +3770,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3759,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3803,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3805,7 +3832,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3832,7 +3859,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,11 +3869,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3858,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3891,31 +3918,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3931,7 +3958,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,11 +3968,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3957,31 +3984,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,31 +4017,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4023,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4040,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,14 +4100,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>253</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4122,7 +4149,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4139,14 +4166,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>255</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>256</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,14 +4199,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4228,7 +4255,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4254,7 +4281,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4271,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4287,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,11 +4331,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4320,14 +4347,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4337,49 +4364,181 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4879.79</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>268</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>269</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>72</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>107</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>270</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>54</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>72</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>144</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>271</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>71</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>72</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>272</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>274</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>275</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>72</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>153</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5069.1300000000001</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>277</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>278</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>279</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4828,10 +4987,30 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -125,12 +137,21 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -272,9 +293,6 @@
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -503,6 +521,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -803,10 +830,16 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
@@ -842,7 +875,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:01 PM</t>
+    <t>Sunday, 8 June, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1582,7 +1615,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1592,11 +1625,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>25</v>
@@ -1608,7 +1641,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1625,11 +1658,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -1641,14 +1674,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1658,11 +1691,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1674,14 +1707,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1691,11 +1724,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1707,14 +1740,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1724,11 +1757,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1780,7 +1813,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1790,14 +1823,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1806,14 +1839,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1830,7 +1863,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1839,14 +1872,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1856,14 +1889,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1872,14 +1905,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1889,14 +1922,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1912,7 +1945,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1929,7 +1962,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1962,7 +1995,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1978,7 +2011,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1995,7 +2028,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2011,7 +2044,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2021,14 +2054,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2037,31 +2070,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2070,14 +2103,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2087,11 +2120,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2103,31 +2136,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2136,14 +2169,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,14 +2186,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2169,14 +2202,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2186,11 +2219,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2202,14 +2235,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2219,14 +2252,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,14 +2268,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,7 +2285,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2275,7 +2308,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,14 +2318,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2308,7 +2341,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2351,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2334,14 +2367,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2384,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2374,7 +2407,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2391,7 +2424,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2407,7 +2440,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,11 +2450,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2433,7 +2466,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2450,14 +2483,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,14 +2499,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2483,14 +2516,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2506,7 +2539,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,11 +2549,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2532,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2549,14 +2582,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2565,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,14 +2615,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2598,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,14 +2648,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2638,13 +2671,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2671,7 +2704,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2681,14 +2714,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2697,31 +2730,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2730,14 +2763,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2747,14 +2780,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2763,20 +2796,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2784,10 +2817,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2796,14 +2829,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2820,7 +2853,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2836,13 +2869,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2853,7 +2886,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2869,13 +2902,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2886,7 +2919,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2902,7 +2935,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2935,13 +2968,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2949,7 +2982,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2961,14 +2994,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3011,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,31 +3027,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,14 +3060,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,11 +3077,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3060,14 +3093,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,14 +3110,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3143,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,31 +3159,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3166,7 +3199,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3180,10 +3213,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,14 +3225,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,11 +3242,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3225,31 +3258,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,31 +3291,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3341,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3374,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,31 +3390,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3414,7 +3447,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3430,7 +3463,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3473,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,31 +3489,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,7 +3522,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3506,11 +3539,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3522,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,11 +3572,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3555,31 +3588,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3628,7 +3661,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3645,7 +3678,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3661,7 +3694,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,11 +3704,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3737,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3793,7 +3826,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,11 +3836,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3819,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3852,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,11 +3902,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3885,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3935,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3968,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,31 +3984,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,11 +4034,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4017,14 +4050,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,28 +4083,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4083,31 +4116,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,31 +4149,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4156,24 +4189,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>255</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,31 +4215,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,31 +4248,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,31 +4281,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,31 +4314,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>265</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,31 +4347,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,31 +4380,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,31 +4413,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4413,28 +4446,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4446,28 +4479,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4479,66 +4512,198 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5069.1300000000001</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>277</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>278</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>279</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>43</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>79</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>113</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>281</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>61</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>79</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>150</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>282</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>78</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>79</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>283</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>285</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>286</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>79</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>159</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5190.4650000000001</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>288</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>289</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>290</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5007,10 +5172,30 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -254,9 +263,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -425,9 +431,6 @@
     <t>5:4</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -875,7 +878,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:04 PM</t>
+    <t>Sunday, 8 June, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2143,24 +2146,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2169,20 +2172,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2190,10 +2193,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2202,7 +2205,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2219,11 +2222,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2235,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2252,14 +2255,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2268,14 +2271,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2285,14 +2288,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2308,7 +2311,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,7 +2321,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2341,7 +2344,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2367,14 +2370,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2384,14 +2387,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2407,7 +2410,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2421,10 +2424,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2433,14 +2436,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2450,14 +2453,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,11 +2486,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2499,7 +2502,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2516,7 +2519,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2549,14 +2552,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,14 +2618,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2638,7 +2641,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,14 +2651,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2671,7 +2674,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2681,14 +2684,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,11 +2717,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2730,28 +2733,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2763,31 +2766,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2813,14 +2816,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2829,14 +2832,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2846,14 +2849,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2862,31 +2865,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2895,28 +2898,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2928,14 +2931,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2945,14 +2948,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2961,28 +2964,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2994,28 +2997,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3027,28 +3030,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3060,31 +3063,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3093,14 +3096,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,11 +3113,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3126,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,11 +3146,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3159,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3192,14 +3195,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3225,14 +3228,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3242,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3258,31 +3261,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3291,28 +3294,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>56</v>
@@ -3324,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,14 +3344,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3357,7 +3360,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3374,11 +3377,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3390,7 +3393,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3403,15 +3406,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3423,31 +3426,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3456,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,11 +3476,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3489,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,11 +3509,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3522,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,7 +3558,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3572,11 +3575,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3595,21 +3598,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3621,28 +3624,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3654,14 +3657,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,11 +3674,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3687,7 +3690,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3704,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3720,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,11 +3740,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,14 +3773,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3786,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,14 +3839,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3885,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,14 +3905,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3918,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +3938,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3984,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,14 +4004,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4024,7 +4027,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,11 +4037,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4050,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,7 +4086,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4096,18 +4099,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,31 +4119,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4152,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4182,31 +4185,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4222,21 +4225,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4248,31 +4251,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,31 +4284,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>264</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,7 +4317,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4327,18 +4330,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>43</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,7 +4350,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4360,15 +4363,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>43</v>
@@ -4393,18 +4396,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>271</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,7 +4416,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4426,18 +4429,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4446,31 +4449,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,28 +4482,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4519,21 +4522,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4545,28 +4548,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4585,21 +4588,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4618,21 +4621,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4644,66 +4647,99 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>286</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
         <v>287</v>
       </c>
-      <c t="s" r="Q102" s="12">
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>82</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>160</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5190.4650000000001</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>288</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5202.4650000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
         <v>289</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
         <v>290</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>291</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5192,10 +5228,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -128,309 +128,312 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>0:5</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>55.6800</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>38.4000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>52.9200</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
     <t>7.6800</t>
   </si>
   <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>8.1600</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>38.4000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>103.7400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>52.9200</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -770,6 +773,12 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -827,7 +836,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>32:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -878,7 +890,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:06 PM</t>
+    <t>Sunday, 8 June, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1800,7 +1812,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2853,7 +2865,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>56</v>
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2882,11 +2894,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2898,7 +2910,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2915,11 +2927,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2931,7 +2943,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2948,11 +2960,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2964,7 +2976,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2981,11 +2993,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2997,7 +3009,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3014,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3030,7 +3042,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3047,11 +3059,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3063,7 +3075,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3080,7 +3092,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3117,7 +3129,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3129,7 +3141,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3150,7 +3162,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3183,7 +3195,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3195,7 +3207,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3216,7 +3228,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3228,7 +3240,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3245,11 +3257,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3261,7 +3273,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3294,7 +3306,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>56</v>
@@ -3327,7 +3339,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3344,7 +3356,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3360,7 +3372,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3393,7 +3405,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3414,7 +3426,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3426,7 +3438,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3447,7 +3459,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3459,7 +3471,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3476,11 +3488,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3492,7 +3504,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3509,11 +3521,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3525,7 +3537,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3542,11 +3554,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3558,7 +3570,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3575,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3591,7 +3603,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3608,7 +3620,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3645,7 +3657,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3657,7 +3669,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3674,7 +3686,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3690,7 +3702,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3707,11 +3719,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3723,7 +3735,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3740,11 +3752,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3756,7 +3768,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3773,11 +3785,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3789,7 +3801,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3806,11 +3818,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>56</v>
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,11 +3851,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3855,7 +3867,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3872,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3888,7 +3900,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3905,11 +3917,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3921,7 +3933,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3938,11 +3950,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3987,7 +3999,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4004,11 +4016,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4020,7 +4032,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4053,7 +4065,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4070,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4086,7 +4098,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4107,7 +4119,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>43</v>
@@ -4119,7 +4131,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4136,11 +4148,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4173,7 +4185,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4185,7 +4197,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4202,11 +4214,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4218,31 +4230,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4268,11 +4280,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4284,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4341,7 +4353,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>265</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,7 +4362,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4367,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>268</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4400,11 +4412,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>43</v>
@@ -4416,7 +4428,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4433,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>272</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4466,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4482,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4499,14 +4511,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4532,11 +4544,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4548,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4581,14 +4593,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4598,11 +4610,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4614,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,11 +4643,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4647,14 +4659,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,11 +4676,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4680,14 +4692,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4697,49 +4709,82 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>290</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>291</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>82</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>161</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5202.4650000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>289</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>290</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>291</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5329.9650000000001</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>293</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>294</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>295</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5233,10 +5278,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -125,6 +125,9 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -170,81 +173,84 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>38.4000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>8.1600</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>38.4000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -314,6 +320,18 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -329,6 +347,9 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -368,9 +389,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -845,9 +863,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -890,7 +905,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:08 PM</t>
+    <t>Sunday, 8 June, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1762,7 +1777,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1776,10 +1791,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1805,11 +1820,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1821,14 +1836,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1838,11 +1853,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1854,14 +1869,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1871,11 +1886,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1887,7 +1902,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1904,11 +1919,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1960,7 +1975,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2043,7 +2058,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2052,14 +2067,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2085,7 +2100,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -2118,7 +2133,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2135,11 +2150,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2151,14 +2166,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2168,11 +2183,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2184,28 +2199,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2217,7 +2232,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2250,7 +2265,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2267,11 +2282,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2283,7 +2298,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2300,11 +2315,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,11 +2348,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2349,7 +2364,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2370,7 +2385,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,11 +2414,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,14 +2480,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,11 +2546,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2564,11 +2579,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2580,7 +2595,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,11 +2678,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,14 +2744,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2762,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2785,13 +2800,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2818,7 +2833,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,31 +2859,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2910,31 +2925,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2967,7 +2982,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2983,13 +2998,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3000,7 +3015,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3016,13 +3031,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3033,7 +3048,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3049,7 +3064,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3082,13 +3097,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3096,7 +3111,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,14 +3140,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3141,31 +3156,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,11 +3206,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,14 +3239,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3257,11 +3272,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,7 +3305,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3313,13 +3328,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3330,7 +3345,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3346,7 +3361,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3360,10 +3375,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,7 +3387,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3385,18 +3400,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,7 +3453,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3451,15 +3466,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,31 +3519,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3544,7 +3559,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3577,7 +3592,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3594,7 +3609,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3610,7 +3625,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,28 +3651,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3669,7 +3684,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3686,11 +3701,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3702,28 +3717,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3775,7 +3790,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3792,7 +3807,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3808,7 +3823,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3825,7 +3840,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3841,7 +3856,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,11 +3866,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3924,7 +3939,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3940,7 +3955,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3957,7 +3972,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3973,7 +3988,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,11 +3998,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4097,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,31 +4146,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4204,24 +4219,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,11 +4262,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4263,31 +4278,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,31 +4311,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,31 +4344,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,31 +4377,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,31 +4410,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>61</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4428,7 +4443,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4441,18 +4456,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>43</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,7 +4476,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4474,18 +4489,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>276</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,7 +4509,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4507,18 +4522,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>258</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4534,13 +4549,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4551,7 +4566,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,31 +4575,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,28 +4608,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4626,28 +4641,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4659,28 +4674,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>153</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4692,28 +4707,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4725,66 +4740,132 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>61</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>292</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5329.9650000000001</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>83</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>84</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
         <v>293</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>294</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>295</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>296</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>84</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>167</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5494.3950000000004</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>298</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>299</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>300</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5283,10 +5364,20 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -212,9 +224,6 @@
     <t>38.4000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -797,6 +806,9 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -905,7 +917,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:17 PM</t>
+    <t>Sunday, 8 June, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1711,7 +1723,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1721,11 +1733,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1754,11 +1766,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1787,14 +1799,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1820,14 +1832,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1860,7 +1872,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1876,7 +1888,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1886,11 +1898,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1919,14 +1931,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1975,7 +1987,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1992,7 +2004,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2025,7 +2037,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2041,7 +2053,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2074,7 +2086,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2124,7 +2136,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2140,7 +2152,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2173,7 +2185,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2183,11 +2195,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2199,31 +2211,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2232,31 +2244,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2305,7 +2317,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2322,7 +2334,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2338,7 +2350,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2348,14 +2360,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2381,11 +2393,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,11 +2426,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2430,14 +2442,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,11 +2459,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2484,10 +2496,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2513,14 +2525,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2536,7 +2548,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2546,14 +2558,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2579,11 +2591,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2602,7 +2614,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2645,11 +2657,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2661,7 +2673,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2701,7 +2713,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,14 +2723,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,14 +2756,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2789,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2793,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2810,14 +2822,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2833,7 +2845,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2866,13 +2878,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2899,24 +2911,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2925,14 +2937,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2975,14 +2987,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2991,20 +3003,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3015,7 +3027,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3031,13 +3043,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3064,7 +3076,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3081,7 +3093,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3097,13 +3109,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3130,13 +3142,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3163,13 +3175,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3177,7 +3189,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3189,31 +3201,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3229,7 +3241,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3239,11 +3251,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3255,14 +3267,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3272,7 +3284,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3295,7 +3307,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3317,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3338,14 +3350,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3361,7 +3373,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3378,7 +3390,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3394,13 +3406,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3411,7 +3423,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3427,13 +3439,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3441,10 +3453,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3465,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,14 +3482,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3493,7 +3505,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,11 +3515,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3519,28 +3531,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3552,31 +3564,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3592,7 +3604,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3625,7 +3637,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3658,7 +3670,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3675,7 +3687,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3701,11 +3713,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3717,28 +3729,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3757,21 +3769,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,11 +3812,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3823,7 +3835,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3840,7 +3852,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3856,7 +3868,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3889,7 +3901,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3906,7 +3918,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3922,7 +3934,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,14 +3944,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3948,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3972,7 +3984,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3988,7 +4000,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4021,7 +4033,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4038,7 +4050,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4054,7 +4066,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4080,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4120,7 +4132,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4146,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,11 +4175,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4186,7 +4198,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,31 +4224,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4252,24 +4264,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4285,7 +4297,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4307,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,14 +4323,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,31 +4356,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,28 +4389,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4410,31 +4422,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,31 +4455,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>61</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,31 +4488,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,31 +4521,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>44</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4549,13 +4561,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4566,7 +4578,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>282</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,31 +4587,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>49</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,31 +4620,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>286</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4648,24 +4660,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4681,21 +4693,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4707,28 +4719,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4740,28 +4752,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4773,28 +4785,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>125</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4813,59 +4825,125 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>296</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>86</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>87</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>297</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5494.3950000000004</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>298</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>299</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
         <v>300</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>87</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>170</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5555.9750000000004</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>302</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>303</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>304</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5374,10 +5452,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -89,231 +89,213 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:1</t>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>55.6800</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>57.6000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>55.6800</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>8.1600</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>38.4000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -866,15 +848,18 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>32:0</t>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -917,7 +902,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:30 PM</t>
+    <t>Sunday, 8 June, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1642,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1667,11 +1652,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>25</v>
@@ -1683,14 +1668,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1700,11 +1685,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -1723,7 +1708,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1733,11 +1718,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1749,14 +1734,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1766,11 +1751,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1782,14 +1767,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1799,14 +1784,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1815,14 +1800,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1832,14 +1817,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1872,7 +1857,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1888,7 +1873,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1898,14 +1883,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1914,14 +1899,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1931,14 +1916,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1954,7 +1939,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1971,7 +1956,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1987,7 +1972,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1997,14 +1982,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2020,7 +2005,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2037,7 +2022,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2070,7 +2055,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2086,7 +2071,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2103,7 +2088,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2119,7 +2104,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2129,14 +2114,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2145,14 +2130,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2185,24 +2170,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2211,14 +2196,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2251,24 +2236,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2277,14 +2262,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,14 +2279,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2310,14 +2295,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2327,11 +2312,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2343,14 +2328,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2360,14 +2345,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2376,14 +2361,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,7 +2378,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2416,7 +2401,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,11 +2411,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2442,14 +2427,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2444,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2482,7 +2467,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,14 +2477,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2508,7 +2493,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2525,14 +2510,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2541,14 +2526,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2558,14 +2543,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2574,14 +2559,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2591,11 +2576,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2614,7 +2599,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2624,11 +2609,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2640,7 +2625,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2657,14 +2642,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2673,14 +2658,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2690,14 +2675,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2706,14 +2691,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2723,11 +2708,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2739,14 +2724,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,14 +2741,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2772,14 +2757,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,14 +2774,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2805,14 +2790,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2822,14 +2807,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2845,13 +2830,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2878,7 +2863,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,14 +2873,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2904,31 +2889,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2937,14 +2922,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2954,14 +2939,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2970,31 +2955,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3003,14 +2988,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3027,7 +3012,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3043,13 +3028,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3060,7 +3045,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3076,13 +3061,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3093,7 +3078,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3109,7 +3094,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3142,13 +3127,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3156,7 +3141,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3168,14 +3153,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3185,14 +3170,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,31 +3186,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,14 +3219,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,11 +3236,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3267,14 +3252,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,14 +3269,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3300,14 +3285,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,11 +3302,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3333,14 +3318,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3350,7 +3335,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3373,13 +3358,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3390,7 +3375,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,7 +3391,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3420,10 +3405,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,31 +3417,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3465,14 +3450,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3482,14 +3467,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3498,28 +3483,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3531,14 +3516,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,14 +3533,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,31 +3549,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3604,7 +3589,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3637,7 +3622,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3654,7 +3639,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3670,7 +3655,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,14 +3665,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3696,28 +3681,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3729,7 +3714,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3746,11 +3731,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3762,28 +3747,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3795,14 +3780,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,14 +3797,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3835,7 +3820,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3852,7 +3837,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3868,7 +3853,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3885,7 +3870,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3901,7 +3886,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,11 +3896,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3927,14 +3912,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3929,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3945,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3984,7 +3969,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4000,7 +3985,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4017,7 +4002,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4033,7 +4018,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,11 +4028,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4059,14 +4044,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4061,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4092,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,14 +4094,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4160,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,31 +4176,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,14 +4209,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,14 +4226,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4264,24 +4249,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,11 +4292,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4323,31 +4308,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,31 +4341,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,28 +4374,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4422,31 +4407,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,31 +4440,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,31 +4473,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,31 +4506,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>278</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,31 +4539,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>48</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,31 +4572,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>48</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4627,13 +4612,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4644,7 +4629,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>286</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,31 +4638,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>158</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,28 +4671,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>86</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4719,28 +4704,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4752,28 +4737,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4785,28 +4770,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4818,132 +4803,66 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="A107" s="7">
-        <v>101</v>
-      </c>
-      <c r="B107" s="7"/>
-      <c t="s" r="C107" s="8">
-        <v>296</v>
-      </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c t="s" r="H107" s="9">
-        <v>86</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c t="s" r="L107" s="10">
-        <v>87</v>
-      </c>
-      <c r="M107" s="10"/>
-      <c t="s" r="N107" s="8">
+      <c r="P107" s="13">
+        <v>5526.6949999999997</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>297</v>
       </c>
-      <c r="O107" s="8"/>
-      <c t="s" r="P107" s="11">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
         <v>298</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="A108" s="7">
-        <v>102</v>
-      </c>
-      <c r="B108" s="7"/>
-      <c t="s" r="C108" s="8">
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
         <v>299</v>
       </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c t="s" r="H108" s="9">
-        <v>300</v>
-      </c>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c t="s" r="L108" s="10">
-        <v>87</v>
-      </c>
-      <c r="M108" s="10"/>
-      <c t="s" r="N108" s="8">
-        <v>170</v>
-      </c>
-      <c r="O108" s="8"/>
-      <c t="s" r="P108" s="11">
-        <v>301</v>
-      </c>
-      <c t="s" r="Q108" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5555.9750000000004</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>302</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>303</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>304</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5452,20 +5371,10 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L108:M108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -164,45 +164,48 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>99.00</t>
   </si>
   <si>
-    <t>98.0100</t>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>57.6000</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>8.1600</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>57.6000</t>
-  </si>
-  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -500,6 +500,15 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>IVY-A SYRUP</t>
   </si>
   <si>
@@ -626,6 +635,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>135.6300</t>
+  </si>
+  <si>
     <t>ORCHABEPOST 1.5% EYE DPS. 10 ML</t>
   </si>
   <si>
@@ -902,7 +920,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:35 PM</t>
+    <t>Sunday, 8 June, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1924,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1916,14 +1934,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2022,7 +2040,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2031,14 +2049,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2048,11 +2066,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>44</v>
@@ -2064,7 +2082,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2081,11 +2099,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -2097,7 +2115,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2114,11 +2132,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2682,7 +2700,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3127,13 +3145,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3141,10 +3159,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3153,31 +3171,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3193,7 +3211,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3236,7 +3254,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3259,7 +3277,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,14 +3320,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3325,7 +3343,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3342,7 +3360,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3358,13 +3376,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3375,7 +3393,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3391,13 +3409,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3405,7 +3423,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3467,11 +3485,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3483,7 +3501,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3496,15 +3514,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3516,31 +3534,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3556,7 +3574,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3589,7 +3607,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3622,7 +3640,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3639,7 +3657,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3665,11 +3683,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3681,31 +3699,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3714,7 +3732,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3731,11 +3749,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3747,28 +3765,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,14 +3815,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3820,7 +3838,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3837,7 +3855,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3853,7 +3871,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3870,7 +3888,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3886,7 +3904,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,11 +3914,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,14 +3947,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3969,7 +3987,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3985,7 +4003,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4002,7 +4020,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4018,7 +4036,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,11 +4046,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4044,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4079,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4112,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,31 +4194,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4209,14 +4227,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4244,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4249,24 +4267,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,11 +4310,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4308,31 +4326,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,31 +4359,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4391,11 +4409,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4407,14 +4425,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4424,14 +4442,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,14 +4475,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>272</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,11 +4508,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>44</v>
@@ -4506,7 +4524,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4523,14 +4541,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>44</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,7 +4557,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4556,14 +4574,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4572,7 +4590,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4589,14 +4607,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>282</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4612,7 +4630,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4626,10 +4644,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>285</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4645,7 +4663,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,14 +4673,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4671,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,11 +4706,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4704,14 +4722,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4721,11 +4739,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4737,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4754,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4770,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4787,11 +4805,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4803,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4820,49 +4838,115 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>297</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>79</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>80</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>298</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>300</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>301</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>80</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>167</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>44</v>
       </c>
     </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5526.6949999999997</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>297</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>298</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>299</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5640.1549999999997</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>303</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>304</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>305</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5371,10 +5455,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>EXAMIDE 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -545,6 +554,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>MELANTHENOL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -818,12 +836,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -920,7 +932,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:48 PM</t>
+    <t>Sunday, 8 June, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2815,7 +2827,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2848,13 +2860,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2881,24 +2893,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2973,20 +2985,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2997,7 +3009,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3013,13 +3025,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3046,7 +3058,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3063,7 +3075,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3079,13 +3091,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3112,13 +3124,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3145,7 +3157,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3162,7 +3174,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3178,13 +3190,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3192,10 +3204,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3204,31 +3216,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3244,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,11 +3266,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3287,7 +3299,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3310,7 +3322,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3376,7 +3388,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3409,13 +3421,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3426,7 +3438,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3442,7 +3454,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3456,10 +3468,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3468,7 +3480,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3481,18 +3493,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,7 +3546,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3547,15 +3559,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3600,31 +3612,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3640,7 +3652,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3673,7 +3685,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3690,7 +3702,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3749,11 +3761,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3765,31 +3777,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,7 +3810,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3815,11 +3827,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3831,28 +3843,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3904,7 +3916,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3921,7 +3933,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3937,7 +3949,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3954,7 +3966,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3970,7 +3982,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,11 +3992,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4053,7 +4065,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4069,7 +4081,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4086,7 +4098,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4102,7 +4114,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4112,11 +4124,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,14 +4173,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,14 +4206,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,14 +4239,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,31 +4272,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4333,24 +4345,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,11 +4388,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4392,31 +4404,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,31 +4437,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,11 +4487,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4491,14 +4503,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,14 +4520,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,14 +4536,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,14 +4553,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>278</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,14 +4569,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,11 +4586,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>44</v>
@@ -4590,7 +4602,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>44</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,10 +4656,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>285</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4673,14 +4685,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>288</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,14 +4701,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4706,14 +4718,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4722,14 +4734,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,14 +4751,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4762,7 +4774,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4772,11 +4784,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4788,14 +4800,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,11 +4817,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4821,14 +4833,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,11 +4850,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4854,14 +4866,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,11 +4883,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4894,7 +4906,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,49 +4916,115 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>301</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>79</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>80</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>302</v>
       </c>
-      <c t="s" r="Q108" s="12">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>304</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>305</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>80</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>170</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>44</v>
       </c>
     </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5640.1549999999997</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>303</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>304</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>305</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5721.9350000000004</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>307</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>308</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>309</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5465,10 +5543,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -755,6 +764,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -932,7 +950,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:55 PM</t>
+    <t>Sunday, 8 June, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1606,7 +1624,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1639,7 +1657,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1649,14 +1667,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1665,14 +1683,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1682,14 +1700,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1698,14 +1716,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1715,14 +1733,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1738,7 +1756,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1748,14 +1766,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1781,14 +1799,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1887,7 +1905,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1903,7 +1921,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1929,14 +1947,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1953,7 +1971,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1969,7 +1987,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2019,7 +2037,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2035,7 +2053,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2045,14 +2063,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2068,7 +2086,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2078,14 +2096,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>44</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2101,7 +2119,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2111,14 +2129,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2193,31 +2211,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2239,18 +2257,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2266,7 +2284,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2283,7 +2301,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2299,7 +2317,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2316,7 +2334,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2332,7 +2350,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2398,7 +2416,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2478,10 +2496,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2530,7 +2548,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2613,7 +2631,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2629,7 +2647,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2827,7 +2845,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2844,7 +2862,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2860,7 +2878,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2877,7 +2895,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2893,13 +2911,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2910,7 +2928,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2926,24 +2944,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>143</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3018,20 +3036,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3042,7 +3060,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3058,13 +3076,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3075,7 +3093,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3091,7 +3109,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3108,7 +3126,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3124,13 +3142,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3141,7 +3159,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3157,13 +3175,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3174,7 +3192,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3190,7 +3208,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3207,7 +3225,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3223,13 +3241,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3237,10 +3255,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3249,31 +3267,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3289,7 +3307,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3355,7 +3373,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3421,7 +3439,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3438,7 +3456,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3454,7 +3472,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3471,7 +3489,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3487,13 +3505,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3504,7 +3522,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3520,13 +3538,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3534,10 +3552,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3586,7 +3604,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,31 +3630,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,31 +3663,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3685,7 +3703,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3702,7 +3720,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3718,7 +3736,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3735,7 +3753,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3751,7 +3769,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3768,7 +3786,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3784,7 +3802,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3801,7 +3819,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3817,7 +3835,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3843,31 +3861,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3883,24 +3901,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3949,7 +3967,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3966,7 +3984,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3982,7 +4000,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3999,7 +4017,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4015,7 +4033,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4032,7 +4050,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4048,7 +4066,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4098,7 +4116,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4114,7 +4132,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4131,7 +4149,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4147,7 +4165,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4164,7 +4182,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4180,7 +4198,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,31 +4224,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,31 +4356,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4411,21 +4429,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,31 +4488,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4503,31 +4521,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,31 +4554,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,31 +4587,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4609,24 +4627,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,31 +4653,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,31 +4686,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>44</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4701,31 +4719,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4734,31 +4752,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4774,13 +4792,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4788,10 +4806,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>295</v>
-      </c>
-      <c t="s" r="Q104" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4807,24 +4825,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4833,31 +4851,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4866,31 +4884,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4899,31 +4917,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,31 +4950,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4965,66 +4983,132 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>62</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5721.9350000000004</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>307</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>83</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
         <v>308</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>309</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>310</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>311</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>83</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>173</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5754.0299999999997</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>313</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>314</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>315</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5553,10 +5637,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -311,99 +311,99 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>103.7400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -896,7 +896,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>33:0</t>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -950,7 +953,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 9:59 PM</t>
+    <t>Sunday, 8 June, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2449,7 +2452,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2459,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2475,14 +2478,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2492,11 +2495,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2508,7 +2511,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2525,7 +2528,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2541,7 +2544,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2558,11 +2561,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2574,7 +2577,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2591,11 +2594,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2624,11 +2627,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2640,7 +2643,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2657,11 +2660,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2706,7 +2709,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2723,11 +2726,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2739,7 +2742,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2760,7 +2763,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>68</v>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2805,7 +2808,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2838,14 +2841,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2878,7 +2881,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3647,7 +3650,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -4806,10 +4809,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,7 +4821,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4839,10 +4842,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,7 +4854,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4868,11 +4871,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4884,7 +4887,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4917,7 +4920,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4938,7 +4941,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4950,7 +4953,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4967,11 +4970,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4983,7 +4986,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5016,7 +5019,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5033,11 +5036,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5049,14 +5052,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5070,7 +5073,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>48</v>
@@ -5078,13 +5081,13 @@
     </row>
     <row r="113" ht="24.75" customHeight="1">
       <c r="P113" s="13">
-        <v>5754.0299999999997</v>
+        <v>5783.2550000000001</v>
       </c>
       <c r="Q113" s="13"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
       <c t="s" r="A114" s="14">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -5092,13 +5095,13 @@
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c t="s" r="G114" s="15">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="16"/>
       <c t="s" r="K114" s="17">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -152,6 +152,21 @@
     <t>55.6800</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -209,15 +224,9 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>57.6000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -230,6 +239,12 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CELEBREX 200MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -611,9 +626,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -896,10 +908,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>34:0</t>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>37:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -953,7 +965,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:18 PM</t>
+    <t>Sunday, 8 June, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1941,7 +1953,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1950,14 +1962,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1967,14 +1979,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2000,14 +2012,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2033,14 +2045,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2049,14 +2061,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2066,14 +2078,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2082,14 +2094,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2099,14 +2111,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2172,7 +2184,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2188,7 +2200,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2202,7 +2214,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -2214,14 +2226,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2231,11 +2243,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -2247,31 +2259,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2297,11 +2309,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -2313,20 +2325,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2334,10 +2346,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2396,7 +2408,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2419,7 +2431,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2436,7 +2448,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2452,7 +2464,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2495,11 +2507,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2568,7 +2580,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2627,14 +2639,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2660,11 +2672,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2693,7 +2705,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2733,7 +2745,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2749,7 +2761,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2782,7 +2794,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2924,11 +2936,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2940,28 +2952,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3006,31 +3018,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3072,31 +3084,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3138,31 +3150,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3171,31 +3183,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,11 +3233,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3237,31 +3249,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3270,28 +3282,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3310,7 +3322,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3320,7 +3332,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3343,24 +3355,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3386,7 +3398,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3409,7 +3421,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3419,14 +3431,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3442,7 +3454,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3475,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,11 +3530,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3534,31 +3546,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3607,13 +3619,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3624,7 +3636,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3640,7 +3652,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3673,21 +3685,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3706,7 +3718,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,31 +3744,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3782,11 +3794,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3831,7 +3843,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3848,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3864,7 +3876,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3881,11 +3893,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3904,24 +3916,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3947,11 +3959,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3963,28 +3975,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4079,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4112,11 +4124,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>29</v>
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4161,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,31 +4239,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4260,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4293,31 +4305,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4366,7 +4378,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4383,7 +4395,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4399,7 +4411,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4425,31 +4437,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,31 +4503,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4524,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,7 +4553,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4564,24 +4576,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4590,31 +4602,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,28 +4635,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4656,31 +4668,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>53</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4689,31 +4701,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>62</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4722,31 +4734,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4755,31 +4767,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>48</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4795,13 +4807,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4812,7 +4824,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>296</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4821,31 +4833,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>299</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,31 +4866,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,31 +4899,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>165</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4927,21 +4939,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4953,28 +4965,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4986,28 +4998,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5019,28 +5031,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>126</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5059,59 +5071,125 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>312</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>12</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>88</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
         <v>313</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5783.2550000000001</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>314</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>315</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>316</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>88</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>178</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5884.5950000000003</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>318</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>319</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>320</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5650,10 +5728,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -965,7 +965,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:22 PM</t>
+    <t>Sunday, 8 June, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -665,6 +665,9 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -965,7 +968,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:23 PM</t>
+    <t>Sunday, 8 June, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3883,7 +3886,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,11 +3896,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3909,14 +3912,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,14 +3929,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,14 +3945,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,14 +3962,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3982,21 +3985,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4008,28 +4011,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4041,14 +4044,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,11 +4061,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4091,14 +4094,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4110,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,11 +4127,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>29</v>
@@ -4140,14 +4143,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4160,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4193,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4226,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,11 +4259,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4272,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,28 +4308,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>29</v>
@@ -4338,31 +4341,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4391,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4404,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4444,7 +4447,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,11 +4457,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4470,14 +4473,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4490,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,7 +4506,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4516,18 +4519,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,31 +4539,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,14 +4605,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4622,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,31 +4638,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4675,7 +4678,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,11 +4688,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4708,7 +4711,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,11 +4721,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4734,14 +4737,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4754,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,14 +4770,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4787,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>292</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,7 +4803,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4817,14 +4820,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>53</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,7 +4836,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4850,11 +4853,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>53</v>
@@ -4883,14 +4886,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>300</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,7 +4902,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4916,14 +4919,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4935,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4952,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5005,7 +5008,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,11 +5018,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5031,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,11 +5051,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5071,7 +5074,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5084,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5104,7 +5107,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5117,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5130,14 +5133,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,49 +5150,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>178</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>316</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
         <v>317</v>
       </c>
-      <c t="s" r="Q114" s="12">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>88</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>178</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>53</v>
       </c>
     </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5884.5950000000003</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>318</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5906.5950000000003</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>319</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
         <v>320</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>321</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5738,10 +5774,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -560,7 +569,7 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
@@ -581,9 +590,6 @@
     <t>MELANTHENOL CREAM 40 GM</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -968,7 +974,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:24 PM</t>
+    <t>Sunday, 8 June, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1751,11 +1757,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>29</v>
@@ -1767,14 +1773,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1784,11 +1790,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>29</v>
@@ -1800,14 +1806,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1840,7 +1846,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1873,7 +1879,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1883,14 +1889,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1899,14 +1905,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1916,14 +1922,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1932,14 +1938,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1949,14 +1955,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1965,14 +1971,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1982,14 +1988,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1998,14 +2004,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2022,7 +2028,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2038,7 +2044,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2048,14 +2054,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2064,14 +2070,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2088,7 +2094,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2104,7 +2110,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2114,14 +2120,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2130,14 +2136,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2147,14 +2153,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2163,14 +2169,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2180,14 +2186,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2217,10 +2223,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2229,14 +2235,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,11 +2252,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -2269,7 +2275,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2302,7 +2308,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2335,24 +2341,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2368,24 +2374,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2434,7 +2440,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2451,7 +2457,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2467,7 +2473,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,14 +2483,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,7 +2516,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2533,7 +2539,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2550,7 +2556,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2566,7 +2572,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2576,14 +2582,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2592,14 +2598,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2613,10 +2619,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,14 +2648,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2665,7 +2671,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2675,14 +2681,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2691,14 +2697,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2708,11 +2714,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2731,7 +2737,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2774,11 +2780,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2790,7 +2796,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2807,14 +2813,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2830,7 +2836,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2840,14 +2846,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2995,7 +3001,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3028,13 +3034,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3061,24 +3067,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>151</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3093,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,14 +3110,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3137,14 +3143,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3153,20 +3159,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3177,7 +3183,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3193,13 +3199,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3226,7 +3232,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3243,7 +3249,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3259,13 +3265,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3292,13 +3298,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3325,7 +3331,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3342,7 +3348,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3358,13 +3364,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3372,10 +3378,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3384,31 +3390,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3424,7 +3430,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,11 +3440,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3450,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,14 +3473,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3490,7 +3496,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3500,14 +3506,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3516,14 +3522,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,7 +3539,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3556,7 +3562,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,14 +3572,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3582,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3599,14 +3605,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,31 +3621,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3648,31 +3654,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3688,7 +3694,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3702,10 +3708,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3721,7 +3727,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,11 +3737,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3754,17 +3760,17 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3787,24 +3793,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3813,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,11 +3836,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3846,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,11 +3869,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3879,14 +3885,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,14 +3902,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3912,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,11 +3935,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3945,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3978,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3995,14 +4001,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4011,28 +4017,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4044,28 +4050,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4084,7 +4090,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4098,7 +4104,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4110,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,14 +4133,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,11 +4166,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -4176,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4209,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4242,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,14 +4281,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,11 +4298,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4308,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4341,28 +4347,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4374,31 +4380,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4424,11 +4430,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4457,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4490,11 +4496,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>29</v>
@@ -4506,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4546,24 +4552,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>48</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,31 +4578,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,14 +4628,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4645,7 +4651,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,14 +4661,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4678,24 +4684,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,28 +4710,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4737,28 +4743,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4783,18 +4789,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4803,31 +4809,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>293</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4836,31 +4842,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>53</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4869,31 +4875,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4902,31 +4908,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>301</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4935,31 +4941,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>303</v>
-      </c>
-      <c t="s" r="Q108" s="12">
-        <v>304</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4968,31 +4974,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5001,28 +5007,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5034,28 +5040,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5074,21 +5080,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5100,28 +5106,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5133,28 +5139,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5166,66 +5172,99 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>318</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5906.5950000000003</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
         <v>319</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>91</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>181</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>320</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c t="s" r="Q116" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5942.2349999999997</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>321</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>322</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>323</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5779,10 +5818,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:28 PM</t>
+    <t>Sunday, 8 June, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -299,6 +299,12 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>CLOZAPEX 25MG 50 TAB</t>
   </si>
   <si>
@@ -389,6 +395,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -413,9 +428,6 @@
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -746,6 +758,9 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -893,10 +908,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>رباط ضغط 12سم</t>
@@ -965,6 +977,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -974,7 +992,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:30 PM</t>
+    <t>Sunday, 8 June, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2539,7 +2557,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,11 +2567,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2671,7 +2689,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2685,10 +2703,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,11 +2798,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2796,7 +2814,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2813,7 +2831,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2836,7 +2854,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2869,7 +2887,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2902,7 +2920,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,11 +2930,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3044,11 +3062,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -3060,28 +3078,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3126,31 +3144,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3192,31 +3210,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3258,31 +3276,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3291,31 +3309,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,7 +3342,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3341,11 +3359,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3357,31 +3375,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3390,28 +3408,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3456,31 +3474,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,11 +3524,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3595,7 +3613,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3654,31 +3672,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3720,7 +3738,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3733,18 +3751,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3760,7 +3778,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3770,14 +3788,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3799,15 +3817,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3826,7 +3844,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,31 +3870,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3903,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,11 +3920,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>29</v>
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3935,14 +3953,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3958,7 +3976,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3975,7 +3993,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3991,7 +4009,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,7 +4035,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4034,11 +4052,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4057,24 +4075,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4100,11 +4118,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4116,28 +4134,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4217,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4233,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,14 +4250,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>29</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,11 +4382,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4380,31 +4398,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,11 +4448,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4446,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4481,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,7 +4497,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4492,15 +4510,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>29</v>
@@ -4512,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4547,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,7 +4563,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4562,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,31 +4596,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,11 +4646,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>29</v>
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,14 +4679,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,31 +4695,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,31 +4728,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4750,24 +4768,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,31 +4794,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4827,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4844,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4860,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4877,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>295</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,14 +4893,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4910,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4926,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,11 +4943,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>56</v>
@@ -4941,7 +4959,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4958,14 +4976,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,7 +4992,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4991,14 +5009,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>306</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5007,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,14 +5042,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,14 +5075,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,14 +5108,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5106,14 +5124,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5141,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5146,7 +5164,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5179,7 +5197,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5207,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>99</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5205,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,49 +5240,181 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>318</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>70</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>91</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>173</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>319</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>12</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>91</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>320</v>
       </c>
-      <c t="s" r="Q116" s="12">
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>322</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>323</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>91</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>320</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>324</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>325</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>91</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>185</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>56</v>
       </c>
     </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5942.2349999999997</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>321</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>322</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>323</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6244.2349999999997</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>327</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>328</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>329</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5823,10 +5973,30 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -44,246 +44,246 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>114.8400</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>ATROZEMB 20/10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>55.6800</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>57.6000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CELEBREX 200MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ALL-VENT SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>ALPHINTERN 30 F.C.TABS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>114.8400</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>55.6800</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>8.1600</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>57.6000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CELEBREX 200MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -722,6 +722,15 @@
     <t>102.00</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
     <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
   </si>
   <si>
@@ -992,7 +1001,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:31 PM</t>
+    <t>Sunday, 8 June, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,7 +1675,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1699,7 +1708,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1709,14 +1718,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1749,7 +1758,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1758,14 +1767,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1775,14 +1784,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1808,14 +1817,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1831,7 +1840,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1841,14 +1850,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1857,14 +1866,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1890,14 +1899,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1907,14 +1916,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1923,14 +1932,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1940,14 +1949,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1956,14 +1965,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1973,14 +1982,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1989,14 +1998,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2006,14 +2015,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2022,14 +2031,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2039,14 +2048,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2072,14 +2081,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2088,14 +2097,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2105,14 +2114,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2121,14 +2130,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2138,14 +2147,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2154,14 +2163,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2171,14 +2180,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2253,14 +2262,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2336,14 +2345,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2352,14 +2361,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2369,14 +2378,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2385,14 +2394,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2406,10 +2415,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2425,7 +2434,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2442,7 +2451,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2458,7 +2467,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2468,14 +2477,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2491,7 +2500,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2508,7 +2517,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2541,7 +2550,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2557,7 +2566,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2574,7 +2583,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2590,7 +2599,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2607,7 +2616,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2623,7 +2632,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2640,7 +2649,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2673,7 +2682,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2689,7 +2698,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2703,10 +2712,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2722,7 +2731,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2739,7 +2748,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2755,7 +2764,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2772,7 +2781,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2788,7 +2797,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2805,7 +2814,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2821,7 +2830,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2838,7 +2847,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2854,7 +2863,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2871,7 +2880,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2887,7 +2896,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2904,7 +2913,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2920,7 +2929,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2937,7 +2946,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2953,7 +2962,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2986,7 +2995,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3019,7 +3028,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3036,7 +3045,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3069,7 +3078,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3102,7 +3111,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3135,7 +3144,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3151,7 +3160,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3168,7 +3177,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3227,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3267,7 +3276,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3300,7 +3309,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3316,7 +3325,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3333,7 +3342,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3349,7 +3358,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3366,7 +3375,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3382,7 +3391,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3399,7 +3408,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3415,7 +3424,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3432,7 +3441,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3448,7 +3457,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3465,7 +3474,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3481,7 +3490,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3498,7 +3507,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,7 +3540,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3557,14 +3566,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3613,7 +3622,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3656,14 +3665,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3679,7 +3688,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3696,7 +3705,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3712,7 +3721,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3729,7 +3738,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3762,7 +3771,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3778,7 +3787,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3795,7 +3804,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3811,7 +3820,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3825,10 +3834,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3844,7 +3853,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3861,7 +3870,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3877,7 +3886,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3894,7 +3903,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3910,7 +3919,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3927,7 +3936,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3943,7 +3952,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3960,7 +3969,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3976,7 +3985,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3993,7 +4002,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4009,7 +4018,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4026,7 +4035,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4059,7 +4068,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4075,7 +4084,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4092,7 +4101,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4108,7 +4117,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4125,7 +4134,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,7 +4167,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4174,7 +4183,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4188,10 +4197,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4207,7 +4216,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4224,7 +4233,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4240,7 +4249,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4257,7 +4266,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4273,7 +4282,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4290,7 +4299,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4306,7 +4315,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4323,7 +4332,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4339,7 +4348,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>53</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4422,7 +4431,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4438,7 +4447,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4455,7 +4464,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4471,7 +4480,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4488,7 +4497,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4504,13 +4513,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4521,7 +4530,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4537,24 +4546,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4587,7 +4596,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4603,7 +4612,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4669,7 +4678,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,31 +4704,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>47</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4735,24 +4744,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>69</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4768,7 +4777,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4827,31 +4836,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4877,14 +4886,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>55</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4943,14 +4952,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4959,14 +4968,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4980,10 +4989,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>299</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4999,7 +5008,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5013,10 +5022,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>302</v>
-      </c>
-      <c t="s" r="Q109" s="12">
-        <v>56</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5032,7 +5041,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5042,14 +5051,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5058,14 +5067,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5075,14 +5084,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>307</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5091,14 +5100,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5108,7 +5117,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5131,7 +5140,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5141,14 +5150,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q113" s="12">
         <v>313</v>
-      </c>
-      <c t="s" r="Q113" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5164,7 +5173,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5174,14 +5183,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>177</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5190,7 +5199,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5207,14 +5216,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5273,14 +5282,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5289,14 +5298,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5306,14 +5315,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>173</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5329,7 +5338,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5339,14 +5348,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5372,49 +5381,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6244.2349999999997</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>327</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>328</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>91</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>185</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>329</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q121" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6326.0150000000003</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>330</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>331</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>332</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5993,10 +6035,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-08_00-00.xlsx
+++ b/DaySale_2025-06-08_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>65.3400</t>
   </si>
   <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>193.00</t>
+  </si>
+  <si>
+    <t>30.8800</t>
+  </si>
+  <si>
     <t>BUSCOPAN 20MG/ML 6 AMP.</t>
   </si>
   <si>
@@ -362,9 +371,18 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
+    <t>2:4</t>
+  </si>
+  <si>
     <t>85.00</t>
   </si>
   <si>
+    <t>119.0000</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
   </si>
   <si>
@@ -437,9 +455,6 @@
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -758,6 +773,18 @@
     <t>60.3900</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>2:17</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -938,10 +965,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>37:0</t>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>38:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1001,7 +1028,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Sunday, 8 June, 2025 10:39 PM</t>
+    <t>Sunday, 8 June, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2137,7 +2164,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2170,7 +2197,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2283,10 +2310,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2312,11 +2339,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2335,7 +2362,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2368,7 +2395,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2401,24 +2428,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2427,31 +2454,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2493,7 +2520,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2533,7 +2560,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2550,7 +2577,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2566,7 +2593,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2576,14 +2603,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2609,7 +2636,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2632,7 +2659,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2649,7 +2676,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2665,7 +2692,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2712,10 +2739,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2807,11 +2834,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2840,11 +2867,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2922,7 +2949,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2939,14 +2966,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +2999,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2988,14 +3015,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3005,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,11 +3131,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3137,11 +3164,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3153,28 +3180,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3186,31 +3213,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,31 +3312,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3318,28 +3345,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3351,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3368,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3384,28 +3411,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3417,28 +3444,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3467,14 +3494,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3483,31 +3510,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3516,31 +3543,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3599,14 +3626,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3615,14 +3642,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,14 +3659,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,11 +3692,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,31 +3774,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,28 +3807,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3857,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3863,11 +3890,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3879,28 +3906,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3912,31 +3939,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3945,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,11 +3989,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3978,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,11 +4022,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4055,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4110,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,28 +4170,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4176,28 +4203,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4242,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4275,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I87" s="9"/>
    